--- a/torneos/admin.xlsx
+++ b/torneos/admin.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\51-Formulario Torneo\Form prueba\Copia de Seguridad\Herramientas\BD Torneos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\xfrancool\xfrancool.github.io\torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAAE49D-ADEE-4924-B26B-692690D5D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9C5EC-F56D-4EAB-9481-D8C5FBB787C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recaudación" sheetId="1" r:id="rId1"/>
     <sheet name="Balance" sheetId="2" r:id="rId2"/>
-    <sheet name="07.10.2023" sheetId="3" r:id="rId3"/>
-    <sheet name="21.10.2023" sheetId="4" r:id="rId4"/>
+    <sheet name="BD" sheetId="5" r:id="rId3"/>
+    <sheet name="07.10.2023" sheetId="3" r:id="rId4"/>
+    <sheet name="21.10.2023" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
   <si>
     <t>Torneos</t>
   </si>
@@ -337,6 +338,123 @@
   </si>
   <si>
     <t>ernestoesteban182@gmail.com</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Apellido y Nombre</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Blancos</t>
+  </si>
+  <si>
+    <t>Contara</t>
+  </si>
+  <si>
+    <t>Teitelbaum Dorfman, Federico</t>
+  </si>
+  <si>
+    <t>federicoteitelbaum@gmail.com</t>
+  </si>
+  <si>
+    <t>Argento, Elizabeth</t>
+  </si>
+  <si>
+    <t>elizabethmargento@gmail.com</t>
+  </si>
+  <si>
+    <t>Vallejos, Lucas Alejandro</t>
+  </si>
+  <si>
+    <t>lutersman@gmail.com</t>
+  </si>
+  <si>
+    <t>Díaz, Abel</t>
+  </si>
+  <si>
+    <t>montarazmiel@hotmail.com</t>
+  </si>
+  <si>
+    <t>Lerda, Ariel</t>
+  </si>
+  <si>
+    <t>elarilerda@gmail.com</t>
+  </si>
+  <si>
+    <t>Nolting, Milton</t>
+  </si>
+  <si>
+    <t>miltonnolting.colegio@gmail.com</t>
+  </si>
+  <si>
+    <t>Aranda, Tomas</t>
+  </si>
+  <si>
+    <t>tpapena57@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorge, Jimenez</t>
+  </si>
+  <si>
+    <t>xadrijo@gmail.com</t>
+  </si>
+  <si>
+    <t>Oliva, Valentino</t>
+  </si>
+  <si>
+    <t>valeenoliva@gmail.com</t>
+  </si>
+  <si>
+    <t>Franco, Santino</t>
+  </si>
+  <si>
+    <t>san.leon.fran@gmail.com</t>
+  </si>
+  <si>
+    <t>Palacios, Alexandro</t>
+  </si>
+  <si>
+    <t>alexandropalacios2003@gmail.com</t>
+  </si>
+  <si>
+    <t>Poeta, Emilio</t>
+  </si>
+  <si>
+    <t>emiliopoeta1@gmail.com</t>
+  </si>
+  <si>
+    <t>molinaernesto158@gmail.com</t>
+  </si>
+  <si>
+    <t>Miranda, mateo</t>
+  </si>
+  <si>
+    <t>mirandajavier704@gmail.com</t>
+  </si>
+  <si>
+    <t>Sánchez, Mariano Noel</t>
+  </si>
+  <si>
+    <t>marianittto789@gmail.com</t>
+  </si>
+  <si>
+    <t>Cajiao, Manuel</t>
+  </si>
+  <si>
+    <t>manuel.cajiao@mi.unc.edu.ar</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Mascó, Juan Martin</t>
   </si>
 </sst>
 </file>
@@ -346,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +504,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -413,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -436,11 +590,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,14 +640,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,11 +661,302 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DA20FD7E-62EC-4CB1-A702-3D13F4006317}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -822,18 +1279,18 @@
       </c>
       <c r="C2" s="1">
         <f>COUNTIF('07.10.2023'!B2:B29,1)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>1000</v>
       </c>
       <c r="E2" s="3">
         <f>C2*D2</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <f>E2*0.1</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,24 +1352,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <f>SUM(Recaudación!E2:E1048576)</f>
-        <v>43000</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+        <v>18000</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -921,13 +1378,13 @@
       </c>
       <c r="G3" s="7">
         <f>$A$3*0.5</f>
-        <v>21500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
@@ -936,13 +1393,13 @@
       </c>
       <c r="G4" s="7">
         <f>$A$3*0.1</f>
-        <v>4300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
@@ -951,13 +1408,13 @@
       </c>
       <c r="G5" s="7">
         <f>$A$3*0.1</f>
-        <v>4300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
@@ -966,7 +1423,7 @@
       </c>
       <c r="G6" s="7">
         <f>$A$3*0.1</f>
-        <v>4300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,17 +1435,17 @@
       </c>
       <c r="G7" s="7">
         <f>$A$3*0.2</f>
-        <v>8600</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="8">
         <f>SUM(G3:G7)</f>
-        <v>43000</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -1004,23 +1461,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA5C0EC-9AC1-494E-86EB-2834D3735B90}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="30">
+        <v>3572665647</v>
+      </c>
+      <c r="D2" s="29" t="str">
+        <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
+        <v xml:space="preserve"> Juan</v>
+      </c>
+      <c r="E2" s="46" t="str">
+        <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
+        <v>Fernandez</v>
+      </c>
+      <c r="F2" s="45">
+        <f>COUNTBLANK(B2:B46)</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="31">
+        <f>COUNTA(B2:B47)</f>
+        <v>43</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2-F2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="30">
+        <v>3516512615</v>
+      </c>
+      <c r="D3" s="29" t="str">
+        <f t="shared" ref="D3:D29" si="0">MID(A3,SEARCH(",",A3,1)+1,999)</f>
+        <v xml:space="preserve"> Víctor</v>
+      </c>
+      <c r="E3" s="46" t="str">
+        <f t="shared" ref="E3:E57" si="1">MID(A3,1,SEARCH(",",A3,1)-1)</f>
+        <v>Loo Díaz</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="30">
+        <v>2804880791</v>
+      </c>
+      <c r="D4" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Elio</v>
+      </c>
+      <c r="E4" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Milhue</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="30">
+        <v>3516810441</v>
+      </c>
+      <c r="D5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Luis Martín</v>
+      </c>
+      <c r="E5" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Spinsanti</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="30">
+        <v>3548505644</v>
+      </c>
+      <c r="D6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Ramón</v>
+      </c>
+      <c r="E6" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Argento</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="30">
+        <v>3516789379</v>
+      </c>
+      <c r="D7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Felipe</v>
+      </c>
+      <c r="E7" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Soria</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="30">
+        <v>3517447526</v>
+      </c>
+      <c r="D8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Fernando</v>
+      </c>
+      <c r="E8" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Quinteros</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="30">
+        <v>3513527492</v>
+      </c>
+      <c r="D9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Felipe</v>
+      </c>
+      <c r="E9" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Maldonado</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="30">
+        <v>3512049786</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Benjamin</v>
+      </c>
+      <c r="E10" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Martinez</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="30">
+        <v>3482415387</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Damián</v>
+      </c>
+      <c r="E11" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Saurin</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="30">
+        <v>3518730122</v>
+      </c>
+      <c r="D12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Bernardo</v>
+      </c>
+      <c r="E12" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Pérez</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="30">
+        <v>3518049257</v>
+      </c>
+      <c r="D13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Fabrizio Isaías</v>
+      </c>
+      <c r="E13" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Verón</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="30">
+        <v>3515444224</v>
+      </c>
+      <c r="D14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Gaspar</v>
+      </c>
+      <c r="E14" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Sánchez Sargiotti</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="30">
+        <v>351248613</v>
+      </c>
+      <c r="D15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Juan Martin</v>
+      </c>
+      <c r="E15" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Mascó</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="30">
+        <v>3516290543</v>
+      </c>
+      <c r="D16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Lisandro</v>
+      </c>
+      <c r="E16" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Légora</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Cristian Alberto</v>
+      </c>
+      <c r="E17" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Battisti</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Marco</v>
+      </c>
+      <c r="E18" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Moyano</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="30">
+        <v>3515101017</v>
+      </c>
+      <c r="D19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Camilo</v>
+      </c>
+      <c r="E19" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Torero Navarro</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="30">
+        <v>3518583252</v>
+      </c>
+      <c r="D20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Lucho</v>
+      </c>
+      <c r="E20" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Satler</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="30">
+        <v>3516979292</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Moisset</v>
+      </c>
+      <c r="E21" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Hernan</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="30">
+        <v>3517067907</v>
+      </c>
+      <c r="D22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Hernán Nicolas</v>
+      </c>
+      <c r="E22" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Adragna Morich</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="30">
+        <v>3794078175</v>
+      </c>
+      <c r="D23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> José Luis</v>
+      </c>
+      <c r="E23" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Romero</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="30">
+        <v>3517170755</v>
+      </c>
+      <c r="D24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Iñaki</v>
+      </c>
+      <c r="E24" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Abad</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="30">
+        <v>3515294476</v>
+      </c>
+      <c r="D25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Gabriel</v>
+      </c>
+      <c r="E25" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Hernández </v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="30">
+        <v>3517012279</v>
+      </c>
+      <c r="D26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Benjamín Elías</v>
+      </c>
+      <c r="E26" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Silva</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="30">
+        <v>3513286690</v>
+      </c>
+      <c r="D27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Bautista</v>
+      </c>
+      <c r="E27" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Brizuela</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="30">
+        <v>3517058324</v>
+      </c>
+      <c r="D28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Cristian</v>
+      </c>
+      <c r="E28" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Halac</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Alberto</v>
+      </c>
+      <c r="E29" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Romero</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="31">
+        <v>2944539859</v>
+      </c>
+      <c r="D30" s="34" t="str">
+        <f>MID(A30,SEARCH(",",A30,1)+1,999)</f>
+        <v xml:space="preserve"> Federico</v>
+      </c>
+      <c r="E30" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Teitelbaum Dorfman</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="31">
+        <v>3548500137</v>
+      </c>
+      <c r="D31" s="34" t="str">
+        <f t="shared" ref="D31:D57" si="2">MID(A31,SEARCH(",",A31,1)+1,999)</f>
+        <v xml:space="preserve"> Elizabeth</v>
+      </c>
+      <c r="E31" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Argento</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="31">
+        <v>3518171617</v>
+      </c>
+      <c r="D32" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Lucas Alejandro</v>
+      </c>
+      <c r="E32" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Vallejos</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="31">
+        <v>3513131143</v>
+      </c>
+      <c r="D33" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Abel</v>
+      </c>
+      <c r="E33" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Díaz</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="31">
+        <v>3516796536</v>
+      </c>
+      <c r="D34" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Ariel</v>
+      </c>
+      <c r="E34" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Lerda</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="31">
+        <v>3512585218</v>
+      </c>
+      <c r="D35" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Milton</v>
+      </c>
+      <c r="E35" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Nolting</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="31">
+        <v>93516958005</v>
+      </c>
+      <c r="D36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Tomas</v>
+      </c>
+      <c r="E36" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Aranda</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="31">
+        <v>3512097342</v>
+      </c>
+      <c r="D37" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Jimenez</v>
+      </c>
+      <c r="E37" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Jorge</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="31">
+        <v>3513188722</v>
+      </c>
+      <c r="D38" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Valentino</v>
+      </c>
+      <c r="E38" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Oliva</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="31">
+        <v>3518199362</v>
+      </c>
+      <c r="D39" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Santino</v>
+      </c>
+      <c r="E39" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Franco</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="31">
+        <v>3515072067</v>
+      </c>
+      <c r="D40" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Alexandro</v>
+      </c>
+      <c r="E40" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Palacios</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="31">
+        <v>3512529504</v>
+      </c>
+      <c r="D41" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Emilio</v>
+      </c>
+      <c r="E41" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Poeta</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="31">
+        <v>3513209389</v>
+      </c>
+      <c r="D42" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Ernesto</v>
+      </c>
+      <c r="E42" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Molina</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="31">
+        <v>3513209389</v>
+      </c>
+      <c r="D43" s="34" t="str">
+        <f>MID(A43,SEARCH(",",A43,1)+1,999)</f>
+        <v xml:space="preserve"> Ernesto</v>
+      </c>
+      <c r="E43" s="46" t="str">
+        <f>MID(A43,1,SEARCH(",",A43,1)-1)</f>
+        <v>Molina</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="31">
+        <v>3517343131</v>
+      </c>
+      <c r="D44" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> mateo</v>
+      </c>
+      <c r="E44" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Miranda</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="31">
+        <v>3518170886</v>
+      </c>
+      <c r="D45" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Mariano Noel</v>
+      </c>
+      <c r="E45" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Sánchez</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="31">
+        <v>3531333809</v>
+      </c>
+      <c r="D46" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Manuel</v>
+      </c>
+      <c r="E46" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Cajiao</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="31">
+        <v>3516080683</v>
+      </c>
+      <c r="D47" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Daniel</v>
+      </c>
+      <c r="E47" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Villalba</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="31">
+        <v>3512821459</v>
+      </c>
+      <c r="D48" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miriam Susana</v>
+      </c>
+      <c r="E48" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Rojas</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="31">
+        <v>3513516507</v>
+      </c>
+      <c r="D49" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Eduardo</v>
+      </c>
+      <c r="E49" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Parese </v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="31">
+        <v>3516801312</v>
+      </c>
+      <c r="D50" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Pilar</v>
+      </c>
+      <c r="E50" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Tasson</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="31">
+        <v>3512729886</v>
+      </c>
+      <c r="D51" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Patricio</v>
+      </c>
+      <c r="E51" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Álvarez </v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="31">
+        <v>3516378862</v>
+      </c>
+      <c r="D52" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Facundo</v>
+      </c>
+      <c r="E52" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Rigopoulos </v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="31">
+        <v>3546450454</v>
+      </c>
+      <c r="D53" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Manuel Ezequiel</v>
+      </c>
+      <c r="E53" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Cholvis Pereiro</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="31">
+        <v>3516644253</v>
+      </c>
+      <c r="D54" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Fernando</v>
+      </c>
+      <c r="E54" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Rodríguez </v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="31">
+        <v>3546482774</v>
+      </c>
+      <c r="D55" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Gregorio</v>
+      </c>
+      <c r="E55" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Lopez Guerrero</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Máximo</v>
+      </c>
+      <c r="E56" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Fernández Macyszyn </v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="31">
+        <v>3548600375</v>
+      </c>
+      <c r="D57" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Agustín</v>
+      </c>
+      <c r="E57" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Chazarreta </v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B42" r:id="rId1" xr:uid="{989EEB2A-A763-41AE-90A3-F1BC4B82E8B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FD97B-76FE-44C2-921F-C1454515C7B0}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="4"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1042,23 +2617,28 @@
       <c r="G1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
+      <c r="H1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="43"/>
       <c r="K1"/>
-      <c r="L1"/>
+      <c r="L1" s="22"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
+      <c r="B2" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="5">
         <v>3572665647</v>
@@ -1077,18 +2657,27 @@
         <f ca="1">IF(F2&lt;=12, "Niño", IF(F2&lt;=14, "Preadolescente", IF(F2&lt;=24, "Joven", IF(F2&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Adulto</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="37" t="str">
+        <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
+        <v xml:space="preserve"> Juan</v>
+      </c>
+      <c r="I2" s="40" t="str">
+        <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
+        <v>Fernandez</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="20"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
+      <c r="B3" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C3" s="5">
         <v>3516512615</v>
@@ -1107,20 +2696,29 @@
         <f t="shared" ref="G3:G29" ca="1" si="1">IF(F3&lt;=12, "Niño", IF(F3&lt;=14, "Preadolescente", IF(F3&lt;=24, "Joven", IF(F3&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Joven adulto</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="37" t="str">
+        <f t="shared" ref="H3:H29" si="2">MID(A3,SEARCH(",",A3,1)+1,999)</f>
+        <v xml:space="preserve"> Víctor</v>
+      </c>
+      <c r="I3" s="40" t="str">
+        <f t="shared" ref="I3:I29" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
+        <v>Loo Díaz</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="23">
         <f ca="1">AVERAGE(F2:F29)</f>
         <v>29.821428571428573</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
+      <c r="B4" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C4" s="5">
         <v>2804880791</v>
@@ -1139,20 +2737,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Elio</v>
+      </c>
+      <c r="I4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Milhue</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="14">
-        <f ca="1">COUNTIF($G$2:$G$29,J4)</f>
+      <c r="L4" s="24">
+        <f ca="1">COUNTIF($G$2:$G$29,K4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
+      <c r="B5" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C5" s="5">
         <v>3516810441</v>
@@ -1171,20 +2778,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Luis Martín</v>
+      </c>
+      <c r="I5" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Spinsanti</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="14">
-        <f t="shared" ref="K5:K8" ca="1" si="2">COUNTIF($G$2:$G$29,J5)</f>
+      <c r="L5" s="24">
+        <f t="shared" ref="L5:L8" ca="1" si="4">COUNTIF($G$2:$G$29,K5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
+      <c r="B6" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="5">
         <v>3548505644</v>
@@ -1203,20 +2819,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Ramón</v>
+      </c>
+      <c r="I6" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Argento</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L6" s="24">
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
+      <c r="B7" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="5">
         <v>3516789379</v>
@@ -1235,20 +2860,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="H7" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Felipe</v>
+      </c>
+      <c r="I7" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Soria</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L7" s="24">
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
+      <c r="B8" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C8" s="5">
         <v>3517447526</v>
@@ -1267,20 +2901,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="H8" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Fernando</v>
+      </c>
+      <c r="I8" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Quinteros</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L8" s="24">
+        <f t="shared" ca="1" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
+      <c r="B9" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="5">
         <v>3513527492</v>
@@ -1299,13 +2942,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H9" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Felipe</v>
+      </c>
+      <c r="I9" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Maldonado</v>
+      </c>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
+      <c r="B10" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="5">
         <v>3512049786</v>
@@ -1324,13 +2976,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H10" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Benjamin</v>
+      </c>
+      <c r="I10" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Martinez</v>
+      </c>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
+      <c r="B11" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C11" s="5">
         <v>3482415387</v>
@@ -1349,13 +3010,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H11" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Damián</v>
+      </c>
+      <c r="I11" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Saurin</v>
+      </c>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
+      <c r="B12" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="5">
         <v>3518730122</v>
@@ -1374,13 +3044,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H12" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Bernardo</v>
+      </c>
+      <c r="I12" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Pérez</v>
+      </c>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
+      <c r="B13" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C13" s="5">
         <v>3518049257</v>
@@ -1399,13 +3078,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H13" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Fabrizio Isaías</v>
+      </c>
+      <c r="I13" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Verón</v>
+      </c>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
+      <c r="B14" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C14" s="5">
         <v>3515444224</v>
@@ -1424,13 +3112,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Gaspar</v>
+      </c>
+      <c r="I14" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Sánchez Sargiotti</v>
+      </c>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
+      <c r="B15" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C15" s="5">
         <v>351248613</v>
@@ -1449,13 +3146,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Juan Martin</v>
+      </c>
+      <c r="I15" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Masco</v>
+      </c>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
+      <c r="B16" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="5">
         <v>3516290543</v>
@@ -1474,13 +3180,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Lisandro</v>
+      </c>
+      <c r="I16" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Légora</v>
+      </c>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
+      <c r="B17" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1495,13 +3210,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Cristian Alberto</v>
+      </c>
+      <c r="I17" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Battisti</v>
+      </c>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
+      <c r="B18" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1516,13 +3240,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Marco</v>
+      </c>
+      <c r="I18" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Moyano</v>
+      </c>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
+      <c r="B19" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="5">
         <v>3515101017</v>
@@ -1541,13 +3274,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Camilo</v>
+      </c>
+      <c r="I19" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Torero Navarro</v>
+      </c>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
+      <c r="B20" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="5">
         <v>3518583252</v>
@@ -1566,13 +3308,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Lucho</v>
+      </c>
+      <c r="I20" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Satler</v>
+      </c>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
+      <c r="B21" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C21" s="5">
         <v>3516979292</v>
@@ -1591,13 +3342,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Moisset</v>
+      </c>
+      <c r="I21" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Hernan</v>
+      </c>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
+      <c r="B22" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="5">
         <v>3517067907</v>
@@ -1616,13 +3376,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Hernán Nicolas</v>
+      </c>
+      <c r="I22" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Adragna Morich</v>
+      </c>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
+      <c r="B23" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C23" s="5">
         <v>3794078175</v>
@@ -1641,13 +3410,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> José Luis</v>
+      </c>
+      <c r="I23" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Romero</v>
+      </c>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
+      <c r="B24" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C24" s="5">
         <v>3517170755</v>
@@ -1666,13 +3444,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Iñaki</v>
+      </c>
+      <c r="I24" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Abad</v>
+      </c>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
+      <c r="B25" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C25" s="5">
         <v>3515294476</v>
@@ -1691,13 +3478,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Gabriel</v>
+      </c>
+      <c r="I25" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Hernández </v>
+      </c>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
+      <c r="B26" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C26" s="5">
         <v>3517012279</v>
@@ -1716,13 +3512,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Benjamín Elías</v>
+      </c>
+      <c r="I26" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Silva</v>
+      </c>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
+      <c r="B27" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C27" s="5">
         <v>3513286690</v>
@@ -1741,13 +3546,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Bautista</v>
+      </c>
+      <c r="I27" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Brizuela</v>
+      </c>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
+      <c r="B28" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C28" s="5">
         <v>3517058324</v>
@@ -1766,13 +3580,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Cristian</v>
+      </c>
+      <c r="I28" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Halac</v>
+      </c>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
+      <c r="B29" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1787,41 +3610,53 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
+      <c r="H29" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Alberto</v>
+      </c>
+      <c r="I29" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Romero</v>
+      </c>
+      <c r="J29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57A47E-A8F3-4DCB-8223-93DEC2F336FF}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -1839,13 +3674,20 @@
       <c r="G1" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="5">
         <v>3548505644</v>
@@ -1864,17 +3706,26 @@
         <f ca="1">IF(F2&lt;=12, "Niño", IF(F2&lt;=14, "Preadolescente", IF(F2&lt;=24, "Joven", IF(F2&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Adulto</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="5" t="str">
+        <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
+        <v xml:space="preserve"> Ramón</v>
+      </c>
+      <c r="I2" s="40" t="str">
+        <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
+        <v>Argento</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
+      <c r="B3" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C3" s="5">
         <v>3517447526</v>
@@ -1893,20 +3744,29 @@
         <f t="shared" ref="G3:G19" ca="1" si="1">IF(F3&lt;=12, "Niño", IF(F3&lt;=14, "Preadolescente", IF(F3&lt;=24, "Joven", IF(F3&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Joven adulto</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H19" si="2">MID(A3,SEARCH(",",A3,1)+1,999)</f>
+        <v xml:space="preserve"> Andres Fernando</v>
+      </c>
+      <c r="I3" s="40" t="str">
+        <f t="shared" ref="I3:I29" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
+        <v>Quinteros</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="23">
         <f ca="1">AVERAGE(F2:F29)</f>
         <v>36.111111111111114</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
+      <c r="B4" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C4" s="5">
         <v>3482415387</v>
@@ -1925,20 +3785,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Damián Nicolás</v>
+      </c>
+      <c r="I4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Saurin</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="14">
-        <f ca="1">COUNTIF($G$2:$G$29,J4)</f>
+      <c r="L4" s="24">
+        <f ca="1">COUNTIF($G$2:$G$29,K4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
+      <c r="B5" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="5">
         <v>3518583252</v>
@@ -1957,20 +3826,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Lucho</v>
+      </c>
+      <c r="I5" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Satler</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="14">
-        <f ca="1">COUNTIF($G$2:$G$29,J5)</f>
+      <c r="L5" s="24">
+        <f ca="1">COUNTIF($G$2:$G$29,K5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
+      <c r="B6" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="5">
         <v>3516080683</v>
@@ -1989,20 +3867,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Daniel</v>
+      </c>
+      <c r="I6" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Villalba</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="14">
-        <f ca="1">COUNTIF($G$2:$G$29,J6)</f>
+      <c r="L6" s="24">
+        <f ca="1">COUNTIF($G$2:$G$29,K6)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
+      <c r="B7" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C7" s="5">
         <v>3516512615</v>
@@ -2021,20 +3908,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Víctor</v>
+      </c>
+      <c r="I7" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Loo Díaz </v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="14">
-        <f ca="1">COUNTIF($G$2:$G$29,J7)</f>
+      <c r="L7" s="24">
+        <f ca="1">COUNTIF($G$2:$G$29,K7)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
+      <c r="B8" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C8" s="5">
         <v>3512821459</v>
@@ -2053,20 +3949,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miriam Susana</v>
+      </c>
+      <c r="I8" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Rojas</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="14">
-        <f ca="1">COUNTIF($G$2:$G$29,J8)</f>
+      <c r="L8" s="24">
+        <f ca="1">COUNTIF($G$2:$G$29,K8)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
+      <c r="B9" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="5">
         <v>3513516507</v>
@@ -2085,13 +3990,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Eduardo</v>
+      </c>
+      <c r="I9" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Parese </v>
+      </c>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
+      <c r="B10" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="5">
         <v>3516801312</v>
@@ -2110,13 +4024,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Pilar</v>
+      </c>
+      <c r="I10" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Tasson</v>
+      </c>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
+      <c r="B11" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C11" s="5">
         <v>3512729886</v>
@@ -2135,13 +4058,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Patricio</v>
+      </c>
+      <c r="I11" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Álvarez </v>
+      </c>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
+      <c r="B12" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="5">
         <v>3512486163</v>
@@ -2160,13 +4092,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Juan Martin</v>
+      </c>
+      <c r="I12" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Mascó </v>
+      </c>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
+      <c r="B13" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C13" s="5">
         <v>3516378862</v>
@@ -2185,13 +4126,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Facundo</v>
+      </c>
+      <c r="I13" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Rigopoulos </v>
+      </c>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
+      <c r="B14" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C14" s="5">
         <v>3546450454</v>
@@ -2210,13 +4160,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Manuel Ezequiel</v>
+      </c>
+      <c r="I14" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Cholvis Pereiro</v>
+      </c>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
+      <c r="B15" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C15" s="5">
         <v>3516644253</v>
@@ -2235,13 +4194,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Fernando</v>
+      </c>
+      <c r="I15" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Rodríguez </v>
+      </c>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
+      <c r="B16" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C16" s="5">
         <v>3546482774</v>
@@ -2260,13 +4228,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Gregorio</v>
+      </c>
+      <c r="I16" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Lopez Guerrero</v>
+      </c>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
+      <c r="B17" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2281,13 +4258,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Máximo</v>
+      </c>
+      <c r="I17" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Fernández Macyszyn </v>
+      </c>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
+      <c r="B18" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C18" s="5">
         <v>3548600375</v>
@@ -2306,13 +4292,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Agustín</v>
+      </c>
+      <c r="I18" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Chazarreta </v>
+      </c>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
+      <c r="B19" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="5">
         <v>3513209389</v>
@@ -2331,10 +4326,59 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Ernesto</v>
+      </c>
+      <c r="I19" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Molina</v>
+      </c>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/torneos/admin.xlsx
+++ b/torneos/admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\xfrancool\xfrancool.github.io\torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9C5EC-F56D-4EAB-9481-D8C5FBB787C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF1EDBA-9D0C-456E-964D-1D95FB04B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recaudación" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +540,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -609,7 +616,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,24 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,12 +710,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -737,9 +720,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -749,183 +729,31 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{DA20FD7E-62EC-4CB1-A702-3D13F4006317}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1234,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45206</v>
       </c>
@@ -1278,19 +1106,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTIF('07.10.2023'!B2:B29,1)</f>
-        <v>0</v>
+        <f>COUNTIF('07.10.2023'!B:B,"SI")</f>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>1000</v>
       </c>
       <c r="E2" s="3">
         <f>C2*D2</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F2" s="3">
         <f>E2*0.1</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,18 +1129,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <f>COUNTIF('21.10.2023'!B:B,"SI")</f>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>1000</v>
       </c>
       <c r="E3" s="3">
         <f>C3*D3</f>
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="F3" s="3">
         <f>E3*0.1</f>
-        <v>1800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,7 +1172,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,24 +1181,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="E2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="43">
         <f>SUM(Recaudación!E2:E1048576)</f>
-        <v>18000</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+        <v>36000</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1378,13 +1207,13 @@
       </c>
       <c r="G3" s="7">
         <f>$A$3*0.5</f>
-        <v>9000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1393,13 +1222,13 @@
       </c>
       <c r="G4" s="7">
         <f>$A$3*0.1</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1408,13 +1237,13 @@
       </c>
       <c r="G5" s="7">
         <f>$A$3*0.1</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1252,7 @@
       </c>
       <c r="G6" s="7">
         <f>$A$3*0.1</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,17 +1264,17 @@
       </c>
       <c r="G7" s="7">
         <f>$A$3*0.2</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="8">
         <f>SUM(G3:G7)</f>
-        <v>18000</v>
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -1464,1103 +1293,1103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA5C0EC-9AC1-494E-86EB-2834D3735B90}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="27"/>
+    <col min="6" max="6" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>106</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="24">
         <v>3572665647</v>
       </c>
-      <c r="D2" s="29" t="str">
+      <c r="D2" s="23" t="str">
         <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
         <v xml:space="preserve"> Juan</v>
       </c>
-      <c r="E2" s="46" t="str">
+      <c r="E2" s="38" t="str">
         <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
         <v>Fernandez</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="37">
         <f>COUNTBLANK(B2:B46)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="25">
         <f>COUNTA(B2:B47)</f>
         <v>43</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="26">
         <f>G2-F2</f>
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="24">
         <v>3516512615</v>
       </c>
-      <c r="D3" s="29" t="str">
+      <c r="D3" s="23" t="str">
         <f t="shared" ref="D3:D29" si="0">MID(A3,SEARCH(",",A3,1)+1,999)</f>
         <v xml:space="preserve"> Víctor</v>
       </c>
-      <c r="E3" s="46" t="str">
+      <c r="E3" s="38" t="str">
         <f t="shared" ref="E3:E57" si="1">MID(A3,1,SEARCH(",",A3,1)-1)</f>
         <v>Loo Díaz</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="24">
         <v>2804880791</v>
       </c>
-      <c r="D4" s="29" t="str">
+      <c r="D4" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Elio</v>
       </c>
-      <c r="E4" s="46" t="str">
+      <c r="E4" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Milhue</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="24">
         <v>3516810441</v>
       </c>
-      <c r="D5" s="29" t="str">
+      <c r="D5" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Luis Martín</v>
       </c>
-      <c r="E5" s="46" t="str">
+      <c r="E5" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Spinsanti</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="24">
         <v>3548505644</v>
       </c>
-      <c r="D6" s="29" t="str">
+      <c r="D6" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Ramón</v>
       </c>
-      <c r="E6" s="46" t="str">
+      <c r="E6" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Argento</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="24">
         <v>3516789379</v>
       </c>
-      <c r="D7" s="29" t="str">
+      <c r="D7" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="E7" s="46" t="str">
+      <c r="E7" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Soria</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="24">
         <v>3517447526</v>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="E8" s="46" t="str">
+      <c r="E8" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Quinteros</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="24">
         <v>3513527492</v>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="E9" s="46" t="str">
+      <c r="E9" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Maldonado</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="24">
         <v>3512049786</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Benjamin</v>
       </c>
-      <c r="E10" s="46" t="str">
+      <c r="E10" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Martinez</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="24">
         <v>3482415387</v>
       </c>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Damián</v>
       </c>
-      <c r="E11" s="46" t="str">
+      <c r="E11" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Saurin</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="24">
         <v>3518730122</v>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Bernardo</v>
       </c>
-      <c r="E12" s="46" t="str">
+      <c r="E12" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Pérez</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="24">
         <v>3518049257</v>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Fabrizio Isaías</v>
       </c>
-      <c r="E13" s="46" t="str">
+      <c r="E13" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Verón</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="24">
         <v>3515444224</v>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Gaspar</v>
       </c>
-      <c r="E14" s="46" t="str">
+      <c r="E14" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sánchez Sargiotti</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="30">
-        <v>351248613</v>
-      </c>
-      <c r="D15" s="29" t="str">
+      <c r="C15" s="24">
+        <v>3512486163</v>
+      </c>
+      <c r="D15" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Juan Martin</v>
       </c>
-      <c r="E15" s="46" t="str">
+      <c r="E15" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Mascó</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="24">
         <v>3516290543</v>
       </c>
-      <c r="D16" s="29" t="str">
+      <c r="D16" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Lisandro</v>
       </c>
-      <c r="E16" s="46" t="str">
+      <c r="E16" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Légora</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="29" t="str">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Cristian Alberto</v>
       </c>
-      <c r="E17" s="46" t="str">
+      <c r="E17" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Battisti</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29" t="str">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Marco</v>
       </c>
-      <c r="E18" s="46" t="str">
+      <c r="E18" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Moyano</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="24">
         <v>3515101017</v>
       </c>
-      <c r="D19" s="29" t="str">
+      <c r="D19" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Camilo</v>
       </c>
-      <c r="E19" s="46" t="str">
+      <c r="E19" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Torero Navarro</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="24">
         <v>3518583252</v>
       </c>
-      <c r="D20" s="29" t="str">
+      <c r="D20" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Lucho</v>
       </c>
-      <c r="E20" s="46" t="str">
+      <c r="E20" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Satler</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="24">
         <v>3516979292</v>
       </c>
-      <c r="D21" s="29" t="str">
+      <c r="D21" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Moisset</v>
       </c>
-      <c r="E21" s="46" t="str">
+      <c r="E21" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Hernan</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="24">
         <v>3517067907</v>
       </c>
-      <c r="D22" s="29" t="str">
+      <c r="D22" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Hernán Nicolas</v>
       </c>
-      <c r="E22" s="46" t="str">
+      <c r="E22" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Adragna Morich</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="24">
         <v>3794078175</v>
       </c>
-      <c r="D23" s="29" t="str">
+      <c r="D23" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> José Luis</v>
       </c>
-      <c r="E23" s="46" t="str">
+      <c r="E23" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Romero</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="24">
         <v>3517170755</v>
       </c>
-      <c r="D24" s="29" t="str">
+      <c r="D24" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Iñaki</v>
       </c>
-      <c r="E24" s="46" t="str">
+      <c r="E24" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Abad</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="24">
         <v>3515294476</v>
       </c>
-      <c r="D25" s="29" t="str">
+      <c r="D25" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Gabriel</v>
       </c>
-      <c r="E25" s="46" t="str">
+      <c r="E25" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Hernández </v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="24">
         <v>3517012279</v>
       </c>
-      <c r="D26" s="29" t="str">
+      <c r="D26" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Benjamín Elías</v>
       </c>
-      <c r="E26" s="46" t="str">
+      <c r="E26" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Silva</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="24">
         <v>3513286690</v>
       </c>
-      <c r="D27" s="29" t="str">
+      <c r="D27" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Bautista</v>
       </c>
-      <c r="E27" s="46" t="str">
+      <c r="E27" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Brizuela</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="24">
         <v>3517058324</v>
       </c>
-      <c r="D28" s="29" t="str">
+      <c r="D28" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Cristian</v>
       </c>
-      <c r="E28" s="46" t="str">
+      <c r="E28" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Halac</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29" t="str">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Alberto</v>
       </c>
-      <c r="E29" s="46" t="str">
+      <c r="E29" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Romero</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="25">
         <v>2944539859</v>
       </c>
-      <c r="D30" s="34" t="str">
+      <c r="D30" s="28" t="str">
         <f>MID(A30,SEARCH(",",A30,1)+1,999)</f>
         <v xml:space="preserve"> Federico</v>
       </c>
-      <c r="E30" s="46" t="str">
+      <c r="E30" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Teitelbaum Dorfman</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="25">
         <v>3548500137</v>
       </c>
-      <c r="D31" s="34" t="str">
+      <c r="D31" s="28" t="str">
         <f t="shared" ref="D31:D57" si="2">MID(A31,SEARCH(",",A31,1)+1,999)</f>
         <v xml:space="preserve"> Elizabeth</v>
       </c>
-      <c r="E31" s="46" t="str">
+      <c r="E31" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Argento</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="25">
         <v>3518171617</v>
       </c>
-      <c r="D32" s="34" t="str">
+      <c r="D32" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lucas Alejandro</v>
       </c>
-      <c r="E32" s="46" t="str">
+      <c r="E32" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Vallejos</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="25">
         <v>3513131143</v>
       </c>
-      <c r="D33" s="34" t="str">
+      <c r="D33" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Abel</v>
       </c>
-      <c r="E33" s="46" t="str">
+      <c r="E33" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Díaz</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="25">
         <v>3516796536</v>
       </c>
-      <c r="D34" s="34" t="str">
+      <c r="D34" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ariel</v>
       </c>
-      <c r="E34" s="46" t="str">
+      <c r="E34" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Lerda</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="25">
         <v>3512585218</v>
       </c>
-      <c r="D35" s="34" t="str">
+      <c r="D35" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Milton</v>
       </c>
-      <c r="E35" s="46" t="str">
+      <c r="E35" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Nolting</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="31">
-        <v>93516958005</v>
-      </c>
-      <c r="D36" s="34" t="str">
+      <c r="C36" s="25">
+        <v>3516958005</v>
+      </c>
+      <c r="D36" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Tomas</v>
       </c>
-      <c r="E36" s="46" t="str">
+      <c r="E36" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Aranda</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="25">
         <v>3512097342</v>
       </c>
-      <c r="D37" s="34" t="str">
+      <c r="D37" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Jimenez</v>
       </c>
-      <c r="E37" s="46" t="str">
+      <c r="E37" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Jorge</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="25">
         <v>3513188722</v>
       </c>
-      <c r="D38" s="34" t="str">
+      <c r="D38" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Valentino</v>
       </c>
-      <c r="E38" s="46" t="str">
+      <c r="E38" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Oliva</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="25">
         <v>3518199362</v>
       </c>
-      <c r="D39" s="34" t="str">
+      <c r="D39" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Santino</v>
       </c>
-      <c r="E39" s="46" t="str">
+      <c r="E39" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Franco</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="25">
         <v>3515072067</v>
       </c>
-      <c r="D40" s="34" t="str">
+      <c r="D40" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Alexandro</v>
       </c>
-      <c r="E40" s="46" t="str">
+      <c r="E40" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Palacios</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="25">
         <v>3512529504</v>
       </c>
-      <c r="D41" s="34" t="str">
+      <c r="D41" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Emilio</v>
       </c>
-      <c r="E41" s="46" t="str">
+      <c r="E41" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Poeta</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="25">
         <v>3513209389</v>
       </c>
-      <c r="D42" s="34" t="str">
+      <c r="D42" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ernesto</v>
       </c>
-      <c r="E42" s="46" t="str">
+      <c r="E42" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Molina</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="25">
         <v>3513209389</v>
       </c>
-      <c r="D43" s="34" t="str">
+      <c r="D43" s="28" t="str">
         <f>MID(A43,SEARCH(",",A43,1)+1,999)</f>
         <v xml:space="preserve"> Ernesto</v>
       </c>
-      <c r="E43" s="46" t="str">
+      <c r="E43" s="38" t="str">
         <f>MID(A43,1,SEARCH(",",A43,1)-1)</f>
         <v>Molina</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="25">
         <v>3517343131</v>
       </c>
-      <c r="D44" s="34" t="str">
+      <c r="D44" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> mateo</v>
       </c>
-      <c r="E44" s="46" t="str">
+      <c r="E44" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Miranda</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="25">
         <v>3518170886</v>
       </c>
-      <c r="D45" s="34" t="str">
+      <c r="D45" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Mariano Noel</v>
       </c>
-      <c r="E45" s="46" t="str">
+      <c r="E45" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sánchez</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="25">
         <v>3531333809</v>
       </c>
-      <c r="D46" s="34" t="str">
+      <c r="D46" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Manuel</v>
       </c>
-      <c r="E46" s="46" t="str">
+      <c r="E46" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Cajiao</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="25">
         <v>3516080683</v>
       </c>
-      <c r="D47" s="34" t="str">
+      <c r="D47" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Daniel</v>
       </c>
-      <c r="E47" s="46" t="str">
+      <c r="E47" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Villalba</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="25">
         <v>3512821459</v>
       </c>
-      <c r="D48" s="34" t="str">
+      <c r="D48" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Miriam Susana</v>
       </c>
-      <c r="E48" s="46" t="str">
+      <c r="E48" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Rojas</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="25">
         <v>3513516507</v>
       </c>
-      <c r="D49" s="34" t="str">
+      <c r="D49" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Eduardo</v>
       </c>
-      <c r="E49" s="46" t="str">
+      <c r="E49" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Parese </v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="25">
         <v>3516801312</v>
       </c>
-      <c r="D50" s="34" t="str">
+      <c r="D50" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Pilar</v>
       </c>
-      <c r="E50" s="46" t="str">
+      <c r="E50" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Tasson</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="25">
         <v>3512729886</v>
       </c>
-      <c r="D51" s="34" t="str">
+      <c r="D51" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Patricio</v>
       </c>
-      <c r="E51" s="46" t="str">
+      <c r="E51" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Álvarez </v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="25">
         <v>3516378862</v>
       </c>
-      <c r="D52" s="34" t="str">
+      <c r="D52" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Facundo</v>
       </c>
-      <c r="E52" s="46" t="str">
+      <c r="E52" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Rigopoulos </v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="25">
         <v>3546450454</v>
       </c>
-      <c r="D53" s="34" t="str">
+      <c r="D53" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Manuel Ezequiel</v>
       </c>
-      <c r="E53" s="46" t="str">
+      <c r="E53" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Cholvis Pereiro</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="25">
         <v>3516644253</v>
       </c>
-      <c r="D54" s="34" t="str">
+      <c r="D54" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="E54" s="46" t="str">
+      <c r="E54" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Rodríguez </v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="25">
         <v>3546482774</v>
       </c>
-      <c r="D55" s="34" t="str">
+      <c r="D55" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gregorio</v>
       </c>
-      <c r="E55" s="46" t="str">
+      <c r="E55" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Lopez Guerrero</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="34" t="str">
+      <c r="B56" s="39"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Máximo</v>
       </c>
-      <c r="E56" s="46" t="str">
+      <c r="E56" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Fernández Macyszyn </v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="25">
         <v>3548600375</v>
       </c>
-      <c r="D57" s="34" t="str">
+      <c r="D57" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Agustín</v>
       </c>
-      <c r="E57" s="46" t="str">
+      <c r="E57" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Chazarreta </v>
       </c>
@@ -2578,21 +2407,23 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,9 +2454,9 @@
       <c r="I1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="43"/>
+      <c r="J1" s="35"/>
       <c r="K1"/>
-      <c r="L1" s="22"/>
+      <c r="L1" s="16"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -2657,19 +2488,19 @@
         <f ca="1">IF(F2&lt;=12, "Niño", IF(F2&lt;=14, "Preadolescente", IF(F2&lt;=24, "Joven", IF(F2&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Adulto</v>
       </c>
-      <c r="H2" s="37" t="str">
+      <c r="H2" s="31" t="str">
         <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
         <v xml:space="preserve"> Juan</v>
       </c>
-      <c r="I2" s="40" t="str">
+      <c r="I2" s="34" t="str">
         <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
         <v>Fernandez</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2696,19 +2527,19 @@
         <f t="shared" ref="G3:G29" ca="1" si="1">IF(F3&lt;=12, "Niño", IF(F3&lt;=14, "Preadolescente", IF(F3&lt;=24, "Joven", IF(F3&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Joven adulto</v>
       </c>
-      <c r="H3" s="37" t="str">
+      <c r="H3" s="31" t="str">
         <f t="shared" ref="H3:H29" si="2">MID(A3,SEARCH(",",A3,1)+1,999)</f>
         <v xml:space="preserve"> Víctor</v>
       </c>
-      <c r="I3" s="40" t="str">
+      <c r="I3" s="34" t="str">
         <f t="shared" ref="I3:I29" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
         <v>Loo Díaz</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="42" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="17">
         <f ca="1">AVERAGE(F2:F29)</f>
         <v>29.821428571428573</v>
       </c>
@@ -2737,19 +2568,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H4" s="37" t="str">
+      <c r="H4" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Elio</v>
       </c>
-      <c r="I4" s="40" t="str">
+      <c r="I4" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Milhue</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="18">
         <f ca="1">COUNTIF($G$2:$G$29,K4)</f>
         <v>3</v>
       </c>
@@ -2778,19 +2609,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H5" s="37" t="str">
+      <c r="H5" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Luis Martín</v>
       </c>
-      <c r="I5" s="40" t="str">
+      <c r="I5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Spinsanti</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="18">
         <f t="shared" ref="L5:L8" ca="1" si="4">COUNTIF($G$2:$G$29,K5)</f>
         <v>2</v>
       </c>
@@ -2819,19 +2650,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H6" s="37" t="str">
+      <c r="H6" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ramón</v>
       </c>
-      <c r="I6" s="40" t="str">
+      <c r="I6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Argento</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="42" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
@@ -2860,19 +2691,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-      <c r="H7" s="37" t="str">
+      <c r="H7" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="I7" s="40" t="str">
+      <c r="I7" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Soria</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="42" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
@@ -2901,19 +2732,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H8" s="37" t="str">
+      <c r="H8" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="I8" s="40" t="str">
+      <c r="I8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Quinteros</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>9</v>
       </c>
@@ -2942,15 +2773,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H9" s="37" t="str">
+      <c r="H9" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="I9" s="40" t="str">
+      <c r="I9" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Maldonado</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2976,15 +2807,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H10" s="37" t="str">
+      <c r="H10" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Benjamin</v>
       </c>
-      <c r="I10" s="40" t="str">
+      <c r="I10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Martinez</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3010,15 +2841,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H11" s="37" t="str">
+      <c r="H11" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Damián</v>
       </c>
-      <c r="I11" s="40" t="str">
+      <c r="I11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Saurin</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3044,15 +2875,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H12" s="37" t="str">
+      <c r="H12" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Bernardo</v>
       </c>
-      <c r="I12" s="40" t="str">
+      <c r="I12" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Pérez</v>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3078,15 +2909,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-      <c r="H13" s="37" t="str">
+      <c r="H13" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fabrizio Isaías</v>
       </c>
-      <c r="I13" s="40" t="str">
+      <c r="I13" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Verón</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3112,15 +2943,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-      <c r="H14" s="37" t="str">
+      <c r="H14" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gaspar</v>
       </c>
-      <c r="I14" s="40" t="str">
+      <c r="I14" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Sánchez Sargiotti</v>
       </c>
-      <c r="J14" s="43"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3130,7 +2961,7 @@
         <v>103</v>
       </c>
       <c r="C15" s="5">
-        <v>351248613</v>
+        <v>3512486163</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>55</v>
@@ -3146,15 +2977,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H15" s="37" t="str">
+      <c r="H15" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Juan Martin</v>
       </c>
-      <c r="I15" s="40" t="str">
+      <c r="I15" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Masco</v>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3180,15 +3011,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H16" s="37" t="str">
+      <c r="H16" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lisandro</v>
       </c>
-      <c r="I16" s="40" t="str">
+      <c r="I16" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Légora</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -3210,15 +3041,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H17" s="37" t="str">
+      <c r="H17" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Cristian Alberto</v>
       </c>
-      <c r="I17" s="40" t="str">
+      <c r="I17" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Battisti</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3240,15 +3071,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H18" s="37" t="str">
+      <c r="H18" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Marco</v>
       </c>
-      <c r="I18" s="40" t="str">
+      <c r="I18" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Moyano</v>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -3274,15 +3105,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-      <c r="H19" s="37" t="str">
+      <c r="H19" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Camilo</v>
       </c>
-      <c r="I19" s="40" t="str">
+      <c r="I19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Torero Navarro</v>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3308,15 +3139,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H20" s="37" t="str">
+      <c r="H20" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lucho</v>
       </c>
-      <c r="I20" s="40" t="str">
+      <c r="I20" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Satler</v>
       </c>
-      <c r="J20" s="43"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3342,15 +3173,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H21" s="37" t="str">
+      <c r="H21" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Moisset</v>
       </c>
-      <c r="I21" s="40" t="str">
+      <c r="I21" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Hernan</v>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3376,15 +3207,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H22" s="37" t="str">
+      <c r="H22" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Hernán Nicolas</v>
       </c>
-      <c r="I22" s="40" t="str">
+      <c r="I22" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Adragna Morich</v>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3410,15 +3241,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H23" s="37" t="str">
+      <c r="H23" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> José Luis</v>
       </c>
-      <c r="I23" s="40" t="str">
+      <c r="I23" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Romero</v>
       </c>
-      <c r="J23" s="43"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3444,15 +3275,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H24" s="37" t="str">
+      <c r="H24" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Iñaki</v>
       </c>
-      <c r="I24" s="40" t="str">
+      <c r="I24" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Abad</v>
       </c>
-      <c r="J24" s="43"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3478,15 +3309,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H25" s="37" t="str">
+      <c r="H25" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gabriel</v>
       </c>
-      <c r="I25" s="40" t="str">
+      <c r="I25" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Hernández </v>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3512,15 +3343,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H26" s="37" t="str">
+      <c r="H26" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Benjamín Elías</v>
       </c>
-      <c r="I26" s="40" t="str">
+      <c r="I26" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Silva</v>
       </c>
-      <c r="J26" s="43"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3546,15 +3377,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-      <c r="H27" s="37" t="str">
+      <c r="H27" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Bautista</v>
       </c>
-      <c r="I27" s="40" t="str">
+      <c r="I27" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Brizuela</v>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3580,15 +3411,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H28" s="37" t="str">
+      <c r="H28" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Cristian</v>
       </c>
-      <c r="I28" s="40" t="str">
+      <c r="I28" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Halac</v>
       </c>
-      <c r="J28" s="43"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -3610,15 +3441,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H29" s="37" t="str">
+      <c r="H29" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Alberto</v>
       </c>
-      <c r="I29" s="40" t="str">
+      <c r="I29" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Romero</v>
       </c>
-      <c r="J29" s="43"/>
+      <c r="J29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3632,31 +3463,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57A47E-A8F3-4DCB-8223-93DEC2F336FF}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -3680,13 +3511,14 @@
       <c r="I1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="33"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="5">
@@ -3710,21 +3542,21 @@
         <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
         <v xml:space="preserve"> Ramón</v>
       </c>
-      <c r="I2" s="40" t="str">
+      <c r="I2" s="34" t="str">
         <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
         <v>Argento</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="5">
@@ -3748,15 +3580,15 @@
         <f t="shared" ref="H3:H19" si="2">MID(A3,SEARCH(",",A3,1)+1,999)</f>
         <v xml:space="preserve"> Andres Fernando</v>
       </c>
-      <c r="I3" s="40" t="str">
-        <f t="shared" ref="I3:I29" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
+      <c r="I3" s="34" t="str">
+        <f t="shared" ref="I3:I19" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
         <v>Quinteros</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="17">
         <f ca="1">AVERAGE(F2:F29)</f>
         <v>36.111111111111114</v>
       </c>
@@ -3765,7 +3597,7 @@
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C4" s="5">
@@ -3789,15 +3621,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Damián Nicolás</v>
       </c>
-      <c r="I4" s="40" t="str">
+      <c r="I4" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Saurin</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="18">
         <f ca="1">COUNTIF($G$2:$G$29,K4)</f>
         <v>0</v>
       </c>
@@ -3806,7 +3638,7 @@
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="5">
@@ -3830,15 +3662,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lucho</v>
       </c>
-      <c r="I5" s="40" t="str">
+      <c r="I5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Satler</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="18">
         <f ca="1">COUNTIF($G$2:$G$29,K5)</f>
         <v>2</v>
       </c>
@@ -3847,7 +3679,7 @@
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C6" s="5">
@@ -3871,15 +3703,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Daniel</v>
       </c>
-      <c r="I6" s="40" t="str">
+      <c r="I6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Villalba</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="18">
         <f ca="1">COUNTIF($G$2:$G$29,K6)</f>
         <v>4</v>
       </c>
@@ -3888,7 +3720,7 @@
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="5">
@@ -3912,15 +3744,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Víctor</v>
       </c>
-      <c r="I7" s="40" t="str">
+      <c r="I7" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Loo Díaz </v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="18">
         <f ca="1">COUNTIF($G$2:$G$29,K7)</f>
         <v>5</v>
       </c>
@@ -3929,7 +3761,7 @@
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="5">
@@ -3953,15 +3785,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Miriam Susana</v>
       </c>
-      <c r="I8" s="40" t="str">
+      <c r="I8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Rojas</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="18">
         <f ca="1">COUNTIF($G$2:$G$29,K8)</f>
         <v>7</v>
       </c>
@@ -3970,7 +3802,7 @@
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="5">
@@ -3994,17 +3826,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Eduardo</v>
       </c>
-      <c r="I9" s="40" t="str">
+      <c r="I9" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Parese </v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="5">
@@ -4028,17 +3860,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Pilar</v>
       </c>
-      <c r="I10" s="40" t="str">
+      <c r="I10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Tasson</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="5">
@@ -4062,17 +3894,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Patricio</v>
       </c>
-      <c r="I11" s="40" t="str">
+      <c r="I11" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Álvarez </v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="5">
@@ -4096,17 +3928,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Juan Martin</v>
       </c>
-      <c r="I12" s="40" t="str">
+      <c r="I12" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Mascó </v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="5">
@@ -4130,17 +3962,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Facundo</v>
       </c>
-      <c r="I13" s="40" t="str">
+      <c r="I13" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Rigopoulos </v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="5">
@@ -4164,17 +3996,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Manuel Ezequiel</v>
       </c>
-      <c r="I14" s="40" t="str">
+      <c r="I14" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Cholvis Pereiro</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="5">
@@ -4198,17 +4030,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="I15" s="40" t="str">
+      <c r="I15" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Rodríguez </v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="5">
@@ -4232,17 +4064,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gregorio</v>
       </c>
-      <c r="I16" s="40" t="str">
+      <c r="I16" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Lopez Guerrero</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="5"/>
@@ -4262,17 +4094,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Máximo</v>
       </c>
-      <c r="I17" s="40" t="str">
+      <c r="I17" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Fernández Macyszyn </v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="5">
@@ -4296,17 +4128,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Agustín</v>
       </c>
-      <c r="I18" s="40" t="str">
+      <c r="I18" s="34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Chazarreta </v>
       </c>
-      <c r="J18" s="39"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="5">
@@ -4330,51 +4162,51 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ernesto</v>
       </c>
-      <c r="I19" s="40" t="str">
+      <c r="I19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Molina</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/torneos/admin.xlsx
+++ b/torneos/admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\xfrancool\xfrancool.github.io\torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF1EDBA-9D0C-456E-964D-1D95FB04B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D1644-255F-4AD5-BE0E-77A55AC2B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="1170" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recaudación" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
   <si>
     <t>Torneos</t>
   </si>
@@ -455,6 +455,36 @@
   </si>
   <si>
     <t>Mascó, Juan Martin</t>
+  </si>
+  <si>
+    <t>Vallejo, Facundo</t>
+  </si>
+  <si>
+    <t>Bianchini , Giuliano</t>
+  </si>
+  <si>
+    <t>Primo, Germán</t>
+  </si>
+  <si>
+    <t>Angell, Angel Gauna</t>
+  </si>
+  <si>
+    <t>Mendieta, Eliana Beatriz</t>
+  </si>
+  <si>
+    <t>Vallejofacundo10@gmail.com</t>
+  </si>
+  <si>
+    <t>Giulibianchini1907@gmail.com</t>
+  </si>
+  <si>
+    <t>electricydadindustrial@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolasgauna380@gmail.com</t>
+  </si>
+  <si>
+    <t>eliynacho2019@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -729,6 +759,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,36 +777,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{DA20FD7E-62EC-4CB1-A702-3D13F4006317}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1062,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1181,24 +1191,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="E2" s="42" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <f>SUM(Recaudación!E2:E1048576)</f>
         <v>36000</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1211,9 +1221,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1226,9 +1236,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1241,9 +1251,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1268,10 +1278,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="8">
         <f>SUM(G3:G7)</f>
         <v>36000</v>
@@ -1291,17 +1301,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA5C0EC-9AC1-494E-86EB-2834D3735B90}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
@@ -1312,11 +1322,11 @@
       <c r="A1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>106</v>
@@ -1338,11 +1348,11 @@
       <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24">
+        <v>3572665647</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="24">
-        <v>3572665647</v>
       </c>
       <c r="D2" s="23" t="str">
         <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
@@ -1353,11 +1363,11 @@
         <v>Fernandez</v>
       </c>
       <c r="F2" s="37">
-        <f>COUNTBLANK(B2:B46)</f>
+        <f>COUNTBLANK(C2:C46)</f>
         <v>3</v>
       </c>
       <c r="G2" s="25">
-        <f>COUNTA(B2:B47)</f>
+        <f>COUNTA(C2:C47)</f>
         <v>43</v>
       </c>
       <c r="H2" s="26">
@@ -1369,11 +1379,11 @@
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24">
+        <v>3516512615</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="24">
-        <v>3516512615</v>
       </c>
       <c r="D3" s="23" t="str">
         <f t="shared" ref="D3:D29" si="0">MID(A3,SEARCH(",",A3,1)+1,999)</f>
@@ -1388,11 +1398,11 @@
       <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24">
+        <v>2804880791</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="24">
-        <v>2804880791</v>
       </c>
       <c r="D4" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1407,11 +1417,11 @@
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24">
+        <v>3516810441</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="24">
-        <v>3516810441</v>
       </c>
       <c r="D5" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1426,11 +1436,11 @@
       <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24">
+        <v>3548505644</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="24">
-        <v>3548505644</v>
       </c>
       <c r="D6" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1445,11 +1455,11 @@
       <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24">
+        <v>3516789379</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="24">
-        <v>3516789379</v>
       </c>
       <c r="D7" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1464,11 +1474,11 @@
       <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24">
+        <v>3517447526</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="24">
-        <v>3517447526</v>
       </c>
       <c r="D8" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1483,11 +1493,11 @@
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24">
+        <v>3513527492</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="24">
-        <v>3513527492</v>
       </c>
       <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1502,11 +1512,11 @@
       <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24">
+        <v>3512049786</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="24">
-        <v>3512049786</v>
       </c>
       <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1521,11 +1531,11 @@
       <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24">
+        <v>3482415387</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="24">
-        <v>3482415387</v>
       </c>
       <c r="D11" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1540,11 +1550,11 @@
       <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24">
+        <v>3518730122</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="24">
-        <v>3518730122</v>
       </c>
       <c r="D12" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1559,11 +1569,11 @@
       <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24">
+        <v>3518049257</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="24">
-        <v>3518049257</v>
       </c>
       <c r="D13" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1578,11 +1588,11 @@
       <c r="A14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24">
+        <v>3515444224</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3515444224</v>
       </c>
       <c r="D14" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1597,11 +1607,11 @@
       <c r="A15" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24">
+        <v>3512486163</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" s="24">
-        <v>3512486163</v>
       </c>
       <c r="D15" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1616,11 +1626,11 @@
       <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24">
+        <v>3516290543</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="24">
-        <v>3516290543</v>
       </c>
       <c r="D16" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1635,8 +1645,8 @@
       <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Cristian Alberto</v>
@@ -1650,8 +1660,8 @@
       <c r="A18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Marco</v>
@@ -1665,11 +1675,11 @@
       <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24">
+        <v>3515101017</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="24">
-        <v>3515101017</v>
       </c>
       <c r="D19" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1684,11 +1694,11 @@
       <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24">
+        <v>3518583252</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="24">
-        <v>3518583252</v>
       </c>
       <c r="D20" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1703,11 +1713,11 @@
       <c r="A21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24">
+        <v>3516979292</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="24">
-        <v>3516979292</v>
       </c>
       <c r="D21" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1722,11 +1732,11 @@
       <c r="A22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24">
+        <v>3517067907</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="24">
-        <v>3517067907</v>
       </c>
       <c r="D22" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1741,11 +1751,11 @@
       <c r="A23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24">
+        <v>3794078175</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" s="24">
-        <v>3794078175</v>
       </c>
       <c r="D23" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1760,11 +1770,11 @@
       <c r="A24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24">
+        <v>3517170755</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="24">
-        <v>3517170755</v>
       </c>
       <c r="D24" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1779,11 +1789,11 @@
       <c r="A25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24">
+        <v>3515294476</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="24">
-        <v>3515294476</v>
       </c>
       <c r="D25" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1798,11 +1808,11 @@
       <c r="A26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24">
+        <v>3517012279</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="24">
-        <v>3517012279</v>
       </c>
       <c r="D26" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1817,11 +1827,11 @@
       <c r="A27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24">
+        <v>3513286690</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="24">
-        <v>3513286690</v>
       </c>
       <c r="D27" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1836,11 +1846,11 @@
       <c r="A28" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24">
+        <v>3517058324</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="24">
-        <v>3517058324</v>
       </c>
       <c r="D28" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1855,8 +1865,8 @@
       <c r="A29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Alberto</v>
@@ -1870,11 +1880,11 @@
       <c r="A30" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="25">
+        <v>2944539859</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" s="25">
-        <v>2944539859</v>
       </c>
       <c r="D30" s="28" t="str">
         <f>MID(A30,SEARCH(",",A30,1)+1,999)</f>
@@ -1889,11 +1899,11 @@
       <c r="A31" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="25">
+        <v>3548500137</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="C31" s="25">
-        <v>3548500137</v>
       </c>
       <c r="D31" s="28" t="str">
         <f t="shared" ref="D31:D57" si="2">MID(A31,SEARCH(",",A31,1)+1,999)</f>
@@ -1908,11 +1918,11 @@
       <c r="A32" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="25">
+        <v>3518171617</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="C32" s="25">
-        <v>3518171617</v>
       </c>
       <c r="D32" s="28" t="str">
         <f t="shared" si="2"/>
@@ -1927,11 +1937,11 @@
       <c r="A33" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="25">
+        <v>3513131143</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="C33" s="25">
-        <v>3513131143</v>
       </c>
       <c r="D33" s="28" t="str">
         <f t="shared" si="2"/>
@@ -1946,11 +1956,11 @@
       <c r="A34" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25">
+        <v>3516796536</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" s="25">
-        <v>3516796536</v>
       </c>
       <c r="D34" s="28" t="str">
         <f t="shared" si="2"/>
@@ -1965,11 +1975,11 @@
       <c r="A35" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="25">
+        <v>3512585218</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="C35" s="25">
-        <v>3512585218</v>
       </c>
       <c r="D35" s="28" t="str">
         <f t="shared" si="2"/>
@@ -1984,11 +1994,11 @@
       <c r="A36" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="25">
+        <v>3516958005</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="25">
-        <v>3516958005</v>
       </c>
       <c r="D36" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2003,11 +2013,11 @@
       <c r="A37" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="25">
+        <v>3512097342</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="C37" s="25">
-        <v>3512097342</v>
       </c>
       <c r="D37" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2022,11 +2032,11 @@
       <c r="A38" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="25">
+        <v>3513188722</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>126</v>
-      </c>
-      <c r="C38" s="25">
-        <v>3513188722</v>
       </c>
       <c r="D38" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2041,11 +2051,11 @@
       <c r="A39" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="25">
+        <v>3518199362</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="C39" s="25">
-        <v>3518199362</v>
       </c>
       <c r="D39" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2060,11 +2070,11 @@
       <c r="A40" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="25">
+        <v>3515072067</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="C40" s="25">
-        <v>3515072067</v>
       </c>
       <c r="D40" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2079,11 +2089,11 @@
       <c r="A41" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="25">
+        <v>3512529504</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="C41" s="25">
-        <v>3512529504</v>
       </c>
       <c r="D41" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2098,11 +2108,11 @@
       <c r="A42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="25">
+        <v>3513209389</v>
+      </c>
+      <c r="C42" s="42" t="s">
         <v>133</v>
-      </c>
-      <c r="C42" s="25">
-        <v>3513209389</v>
       </c>
       <c r="D42" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2117,11 +2127,11 @@
       <c r="A43" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="25">
+        <v>3513209389</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>102</v>
-      </c>
-      <c r="C43" s="25">
-        <v>3513209389</v>
       </c>
       <c r="D43" s="28" t="str">
         <f>MID(A43,SEARCH(",",A43,1)+1,999)</f>
@@ -2136,11 +2146,11 @@
       <c r="A44" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="25">
+        <v>3517343131</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="C44" s="25">
-        <v>3517343131</v>
       </c>
       <c r="D44" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2155,11 +2165,11 @@
       <c r="A45" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="25">
+        <v>3518170886</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>137</v>
-      </c>
-      <c r="C45" s="25">
-        <v>3518170886</v>
       </c>
       <c r="D45" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2174,11 +2184,11 @@
       <c r="A46" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="25">
+        <v>3531333809</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>139</v>
-      </c>
-      <c r="C46" s="25">
-        <v>3531333809</v>
       </c>
       <c r="D46" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2193,11 +2203,11 @@
       <c r="A47" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="25">
+        <v>3516080683</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="C47" s="25">
-        <v>3516080683</v>
       </c>
       <c r="D47" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2222,11 @@
       <c r="A48" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="25">
+        <v>3512821459</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="C48" s="25">
-        <v>3512821459</v>
       </c>
       <c r="D48" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2231,11 +2241,11 @@
       <c r="A49" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="25">
+        <v>3513516507</v>
+      </c>
+      <c r="C49" s="39" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" s="25">
-        <v>3513516507</v>
       </c>
       <c r="D49" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2250,11 +2260,11 @@
       <c r="A50" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="25">
+        <v>3516801312</v>
+      </c>
+      <c r="C50" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" s="25">
-        <v>3516801312</v>
       </c>
       <c r="D50" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2269,11 +2279,11 @@
       <c r="A51" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="25">
+        <v>3512729886</v>
+      </c>
+      <c r="C51" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" s="25">
-        <v>3512729886</v>
       </c>
       <c r="D51" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2288,11 +2298,11 @@
       <c r="A52" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="25">
+        <v>3516378862</v>
+      </c>
+      <c r="C52" s="39" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" s="25">
-        <v>3516378862</v>
       </c>
       <c r="D52" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2307,11 +2317,11 @@
       <c r="A53" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="25">
+        <v>3546450454</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>98</v>
-      </c>
-      <c r="C53" s="25">
-        <v>3546450454</v>
       </c>
       <c r="D53" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2326,11 +2336,11 @@
       <c r="A54" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="25">
+        <v>3516644253</v>
+      </c>
+      <c r="C54" s="39" t="s">
         <v>99</v>
-      </c>
-      <c r="C54" s="25">
-        <v>3516644253</v>
       </c>
       <c r="D54" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2345,11 +2355,11 @@
       <c r="A55" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="25">
+        <v>3546482774</v>
+      </c>
+      <c r="C55" s="39" t="s">
         <v>100</v>
-      </c>
-      <c r="C55" s="25">
-        <v>3546482774</v>
       </c>
       <c r="D55" s="28" t="str">
         <f t="shared" si="2"/>
@@ -2364,8 +2374,8 @@
       <c r="A56" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Máximo</v>
@@ -2379,12 +2389,12 @@
       <c r="A57" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="25">
+        <v>3548600375</v>
+      </c>
+      <c r="C57" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="25">
-        <v>3548600375</v>
-      </c>
       <c r="D57" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Agustín</v>
@@ -2394,11 +2404,110 @@
         <v xml:space="preserve">Chazarreta </v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="25">
+        <v>3525415498</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="28" t="str">
+        <f>MID(A58,SEARCH(",",A58,1)+1,999)</f>
+        <v xml:space="preserve"> Facundo</v>
+      </c>
+      <c r="E58" s="38" t="str">
+        <f>MID(A58,1,SEARCH(",",A58,1)-1)</f>
+        <v>Vallejo</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="25">
+        <v>3516811907</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="28" t="str">
+        <f>MID(A59,SEARCH(",",A59,1)+1,999)</f>
+        <v xml:space="preserve"> Giuliano</v>
+      </c>
+      <c r="E59" s="38" t="str">
+        <f>MID(A59,1,SEARCH(",",A59,1)-1)</f>
+        <v xml:space="preserve">Bianchini </v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="25">
+        <v>3513278560</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="28" t="str">
+        <f>MID(A60,SEARCH(",",A60,1)+1,999)</f>
+        <v xml:space="preserve"> Germán</v>
+      </c>
+      <c r="E60" s="38" t="str">
+        <f>MID(A60,1,SEARCH(",",A60,1)-1)</f>
+        <v>Primo</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="25">
+        <v>3518137436</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="28" t="str">
+        <f>MID(A61,SEARCH(",",A61,1)+1,999)</f>
+        <v xml:space="preserve"> Angel Gauna</v>
+      </c>
+      <c r="E61" s="38" t="str">
+        <f>MID(A61,1,SEARCH(",",A61,1)-1)</f>
+        <v>Angell</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="25">
+        <v>3512267580</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="28" t="str">
+        <f>MID(A62,SEARCH(",",A62,1)+1,999)</f>
+        <v xml:space="preserve"> Eliana Beatriz</v>
+      </c>
+      <c r="E62" s="38" t="str">
+        <f>MID(A62,1,SEARCH(",",A62,1)-1)</f>
+        <v>Mendieta</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" xr:uid="{989EEB2A-A763-41AE-90A3-F1BC4B82E8B3}"/>
+    <hyperlink ref="C42" r:id="rId1" xr:uid="{989EEB2A-A763-41AE-90A3-F1BC4B82E8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2497,10 +2606,10 @@
         <v>Fernandez</v>
       </c>
       <c r="J2" s="35"/>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="46"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3547,10 +3656,10 @@
         <v>Argento</v>
       </c>
       <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="46"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">

--- a/torneos/admin.xlsx
+++ b/torneos/admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\xfrancool\xfrancool.github.io\torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D1644-255F-4AD5-BE0E-77A55AC2B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B57AFF-9D51-48E6-839C-949AA051C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="1170" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="152">
   <si>
     <t>Torneos</t>
   </si>
@@ -1140,18 +1140,18 @@
       </c>
       <c r="C3" s="1">
         <f>COUNTIF('21.10.2023'!B:B,"SI")</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3">
         <v>1000</v>
       </c>
       <c r="E3" s="3">
         <f>C3*D3</f>
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="F3" s="3">
         <f>E3*0.1</f>
-        <v>1100</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="44">
         <f>SUM(Recaudación!E2:E1048576)</f>
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G3" s="7">
         <f>$A$3*0.5</f>
-        <v>18000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G4" s="7">
         <f>$A$3*0.1</f>
-        <v>3600</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G5" s="7">
         <f>$A$3*0.1</f>
-        <v>3600</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="G6" s="7">
         <f>$A$3*0.1</f>
-        <v>3600</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G7" s="7">
         <f>$A$3*0.2</f>
-        <v>7200</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="8">
         <f>SUM(G3:G7)</f>
-        <v>36000</v>
+        <v>46000</v>
       </c>
     </row>
   </sheetData>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA5C0EC-9AC1-494E-86EB-2834D3735B90}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FD97B-76FE-44C2-921F-C1454515C7B0}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,10 +3570,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57A47E-A8F3-4DCB-8223-93DEC2F336FF}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3678,7 +3678,7 @@
         <v>1994</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" ref="F3:F19" ca="1" si="0">YEAR(TODAY())-E3</f>
+        <f t="shared" ref="F3:F27" ca="1" si="0">YEAR(TODAY())-E3</f>
         <v>29</v>
       </c>
       <c r="G3" s="13" t="str">
@@ -3698,8 +3698,8 @@
         <v>69</v>
       </c>
       <c r="L3" s="17">
-        <f ca="1">AVERAGE(F2:F29)</f>
-        <v>36.111111111111114</v>
+        <f ca="1">AVERAGE(F2:F28)</f>
+        <v>33.807692307692307</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3739,8 +3739,8 @@
         <v>71</v>
       </c>
       <c r="L4" s="18">
-        <f ca="1">COUNTIF($G$2:$G$29,K4)</f>
-        <v>0</v>
+        <f ca="1">COUNTIF($G$2:$G$28,K4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>72</v>
       </c>
       <c r="L5" s="18">
-        <f ca="1">COUNTIF($G$2:$G$29,K5)</f>
+        <f ca="1">COUNTIF($G$2:$G$28,K5)</f>
         <v>2</v>
       </c>
     </row>
@@ -3821,8 +3821,8 @@
         <v>73</v>
       </c>
       <c r="L6" s="18">
-        <f ca="1">COUNTIF($G$2:$G$29,K6)</f>
-        <v>4</v>
+        <f ca="1">COUNTIF($G$2:$G$28,K6)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3830,7 +3830,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5">
         <v>3516512615</v>
@@ -3862,8 +3862,8 @@
         <v>74</v>
       </c>
       <c r="L7" s="18">
-        <f ca="1">COUNTIF($G$2:$G$29,K7)</f>
-        <v>5</v>
+        <f ca="1">COUNTIF($G$2:$G$28,K7)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3903,8 +3903,8 @@
         <v>75</v>
       </c>
       <c r="L8" s="18">
-        <f ca="1">COUNTIF($G$2:$G$29,K8)</f>
-        <v>7</v>
+        <f ca="1">COUNTIF($G$2:$G$28,K8)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4214,7 +4214,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="5">
         <v>3548600375</v>
@@ -4278,44 +4278,280 @@
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="33"/>
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3517170755</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" ref="F20:F27" ca="1" si="4">YEAR(TODAY())-E20</f>
+        <v>17</v>
+      </c>
+      <c r="G20" s="13" t="str">
+        <f t="shared" ref="G20:G27" ca="1" si="5">IF(F20&lt;=12, "Niño", IF(F20&lt;=14, "Preadolescente", IF(F20&lt;=24, "Joven", IF(F20&lt;=35, "Joven adulto", "Adulto"))))</f>
+        <v>Joven</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" ref="H20:H27" si="6">MID(A20,SEARCH(",",A20,1)+1,999)</f>
+        <v xml:space="preserve"> Iñaki</v>
+      </c>
+      <c r="I20" s="34" t="str">
+        <f t="shared" ref="I20:I27" si="7">MID(A20,1,SEARCH(",",A20,1)-1)</f>
+        <v>Abad</v>
+      </c>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="33"/>
+      <c r="A21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3525415498</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Joven</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Facundo</v>
+      </c>
+      <c r="I21" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>Vallejo</v>
+      </c>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I22" s="33"/>
+      <c r="A22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3516811907</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G22" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Joven</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Giuliano</v>
+      </c>
+      <c r="I22" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Bianchini </v>
+      </c>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="33"/>
+      <c r="A23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3513278560</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1974</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="G23" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Germán</v>
+      </c>
+      <c r="I23" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>Primo</v>
+      </c>
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="33"/>
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3517058324</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1981</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G24" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cristian</v>
+      </c>
+      <c r="I24" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>Halac</v>
+      </c>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="33"/>
+      <c r="A25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3518137436</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G25" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Niño</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Angel Gauna</v>
+      </c>
+      <c r="I25" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>Angell</v>
+      </c>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I26" s="33"/>
+      <c r="A26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3512267580</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1982</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="G26" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Eliana Beatriz</v>
+      </c>
+      <c r="I26" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>Mendieta</v>
+      </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I27" s="33"/>
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3517067907</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Joven adulto</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Hernán Nicolas</v>
+      </c>
+      <c r="I27" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>Adragna Morich</v>
+      </c>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/torneos/admin.xlsx
+++ b/torneos/admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\xfrancool\xfrancool.github.io\torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B57AFF-9D51-48E6-839C-949AA051C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D2666B-22D6-4D0F-9349-6B2A6D6B02F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="1170" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recaudación" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BD" sheetId="5" r:id="rId3"/>
     <sheet name="07.10.2023" sheetId="3" r:id="rId4"/>
     <sheet name="21.10.2023" sheetId="4" r:id="rId5"/>
+    <sheet name="17.11.2023" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="173">
   <si>
     <t>Torneos</t>
   </si>
@@ -485,6 +486,69 @@
   </si>
   <si>
     <t>eliynacho2019@gmail.com</t>
+  </si>
+  <si>
+    <t>Bilbao, León Jerónimo</t>
+  </si>
+  <si>
+    <t>Tason, Pilar</t>
+  </si>
+  <si>
+    <t>Juárez, José Alberto</t>
+  </si>
+  <si>
+    <t>Cufre, Santiago</t>
+  </si>
+  <si>
+    <t>Franco, Santino Leon</t>
+  </si>
+  <si>
+    <t>Alabar, Alvaro Amir</t>
+  </si>
+  <si>
+    <t>Soria, Christian</t>
+  </si>
+  <si>
+    <t>Pérez , Bernardo</t>
+  </si>
+  <si>
+    <t>tabordam@gmail.com</t>
+  </si>
+  <si>
+    <t>chiclayopilar8@gmail.com</t>
+  </si>
+  <si>
+    <t>pepealbertojuarez@gmail.com</t>
+  </si>
+  <si>
+    <t>CUFRESANTIAGO93@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>alvaroamiralabar@gmail.com</t>
+  </si>
+  <si>
+    <t>17/11/203</t>
+  </si>
+  <si>
+    <t>NETO</t>
+  </si>
+  <si>
+    <t>osmporte7@gmail.com</t>
+  </si>
+  <si>
+    <t>Hernán Nicolas</t>
+  </si>
+  <si>
+    <t>León Jerónimo</t>
+  </si>
+  <si>
+    <t>José Alberto</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Alvaro Amir</t>
   </si>
 </sst>
 </file>
@@ -494,7 +558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +641,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -604,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -640,13 +710,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,8 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,6 +974,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1073,7 +1293,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45206</v>
       </c>
@@ -1139,26 +1359,41 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <f>COUNTIF('21.10.2023'!B:B,"SI")</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3">
         <v>1000</v>
       </c>
       <c r="E3" s="3">
         <f>C3*D3</f>
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="F3" s="3">
         <f>E3*0.1</f>
-        <v>2100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4*D4</f>
+        <v>17000</v>
+      </c>
+      <c r="F4" s="3">
+        <f>E4*0.1</f>
+        <v>1700</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1179,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F0A668-13C9-4756-868A-72A9C24D84E8}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,105 +1425,117 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="E2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
-        <f>SUM(Recaudación!E2:E1048576)</f>
-        <v>46000</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="42">
+        <f>SUM(Recaudación!E:E)</f>
+        <v>60000</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="6">
         <v>0.5</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="50">
         <f>$A$3*0.5</f>
-        <v>23000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="E4" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="6">
         <v>0.1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="50">
         <f>$A$3*0.1</f>
-        <v>4600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="E5" s="49" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
         <v>0.1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="50">
         <f>$A$3*0.1</f>
-        <v>4600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="E6" s="5" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="E6" s="49" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="6">
         <v>0.1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="50">
         <f>$A$3*0.1</f>
-        <v>4600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="49" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
         <v>0.2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="50">
         <f>$A$3*0.2</f>
-        <v>9200</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="8">
+      <c r="E8" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="53">
         <f>SUM(G3:G7)</f>
-        <v>46000</v>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="52">
+        <f>G8-G4</f>
+        <v>54000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C6"/>
     <mergeCell ref="E2:G2"/>
@@ -1301,1210 +1548,1281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA5C0EC-9AC1-494E-86EB-2834D3735B90}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="21"/>
+    <col min="6" max="6" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>3572665647</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="23" t="str">
+      <c r="D2" s="21" t="str">
         <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
         <v xml:space="preserve"> Juan</v>
       </c>
-      <c r="E2" s="38" t="str">
+      <c r="E2" s="36" t="str">
         <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
         <v>Fernandez</v>
       </c>
-      <c r="F2" s="37">
-        <f>COUNTBLANK(C2:C46)</f>
+      <c r="F2" s="35">
+        <f>COUNTBLANK(C2:C45)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="25">
-        <f>COUNTA(C2:C47)</f>
+      <c r="G2" s="23">
+        <f>COUNTA(C2:C46)</f>
+        <v>42</v>
+      </c>
+      <c r="H2" s="24">
+        <f>G2-F2</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="22">
+        <v>3516512615</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="26">
-        <f>G2-F2</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="24">
-        <v>3516512615</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="23" t="str">
-        <f t="shared" ref="D3:D29" si="0">MID(A3,SEARCH(",",A3,1)+1,999)</f>
+      <c r="D3" s="21" t="str">
+        <f t="shared" ref="D3:D28" si="0">MID(A3,SEARCH(",",A3,1)+1,999)</f>
         <v xml:space="preserve"> Víctor</v>
       </c>
-      <c r="E3" s="38" t="str">
-        <f t="shared" ref="E3:E57" si="1">MID(A3,1,SEARCH(",",A3,1)-1)</f>
+      <c r="E3" s="36" t="str">
+        <f t="shared" ref="E3:E56" si="1">MID(A3,1,SEARCH(",",A3,1)-1)</f>
         <v>Loo Díaz</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>2804880791</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="23" t="str">
+      <c r="D4" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Elio</v>
       </c>
-      <c r="E4" s="38" t="str">
+      <c r="E4" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Milhue</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>3516810441</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="23" t="str">
+      <c r="D5" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Luis Martín</v>
       </c>
-      <c r="E5" s="38" t="str">
+      <c r="E5" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Spinsanti</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>3548505644</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="23" t="str">
+      <c r="D6" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Ramón</v>
       </c>
-      <c r="E6" s="38" t="str">
+      <c r="E6" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Argento</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>3516789379</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="E7" s="38" t="str">
+      <c r="E7" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Soria</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>3517447526</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="E8" s="38" t="str">
+      <c r="E8" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Quinteros</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>3513527492</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23" t="str">
+      <c r="D9" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="E9" s="38" t="str">
+      <c r="E9" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Maldonado</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>3512049786</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Benjamin</v>
       </c>
-      <c r="E10" s="38" t="str">
+      <c r="E10" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Martinez</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>3482415387</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Damián</v>
       </c>
-      <c r="E11" s="38" t="str">
+      <c r="E11" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Saurin</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>3518730122</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Bernardo</v>
       </c>
-      <c r="E12" s="38" t="str">
+      <c r="E12" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Pérez</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>3518049257</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="D13" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Fabrizio Isaías</v>
       </c>
-      <c r="E13" s="38" t="str">
+      <c r="E13" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Verón</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>3515444224</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="23" t="str">
+      <c r="D14" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Gaspar</v>
       </c>
-      <c r="E14" s="38" t="str">
+      <c r="E14" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sánchez Sargiotti</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>3512486163</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Juan Martin</v>
       </c>
-      <c r="E15" s="38" t="str">
+      <c r="E15" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mascó</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>3516290543</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="23" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Lisandro</v>
       </c>
-      <c r="E16" s="38" t="str">
+      <c r="E16" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Légora</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="str">
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Cristian Alberto</v>
       </c>
-      <c r="E17" s="38" t="str">
+      <c r="E17" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Battisti</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="str">
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Marco</v>
       </c>
-      <c r="E18" s="38" t="str">
+      <c r="E18" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Moyano</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>3515101017</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="23" t="str">
+      <c r="D19" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Camilo</v>
       </c>
-      <c r="E19" s="38" t="str">
+      <c r="E19" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Torero Navarro</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <v>3518583252</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="23" t="str">
+      <c r="D20" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Lucho</v>
       </c>
-      <c r="E20" s="38" t="str">
+      <c r="E20" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Satler</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <v>3516979292</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="23" t="str">
+      <c r="D21" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Moisset</v>
       </c>
-      <c r="E21" s="38" t="str">
+      <c r="E21" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Hernan</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="24">
-        <v>3517067907</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Hernán Nicolas</v>
-      </c>
-      <c r="E22" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Adragna Morich</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B22" s="22">
         <v>3794078175</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="D22" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> José Luis</v>
       </c>
-      <c r="E23" s="38" t="str">
+      <c r="E22" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Romero</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B23" s="22">
         <v>3517170755</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="23" t="str">
+      <c r="D23" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Iñaki</v>
       </c>
-      <c r="E24" s="38" t="str">
+      <c r="E23" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Abad</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B24" s="22">
         <v>3515294476</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="23" t="str">
+      <c r="D24" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Gabriel</v>
       </c>
-      <c r="E25" s="38" t="str">
+      <c r="E24" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Hernández </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B25" s="22">
         <v>3517012279</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="23" t="str">
+      <c r="D25" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Benjamín Elías</v>
       </c>
-      <c r="E26" s="38" t="str">
+      <c r="E25" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Silva</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B26" s="22">
         <v>3513286690</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="23" t="str">
+      <c r="D26" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Bautista</v>
       </c>
-      <c r="E27" s="38" t="str">
+      <c r="E26" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Brizuela</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B27" s="22">
         <v>3517058324</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="23" t="str">
+      <c r="D27" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Cristian</v>
       </c>
-      <c r="E28" s="38" t="str">
+      <c r="E27" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Halac</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23" t="str">
+      <c r="B28" s="22"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Alberto</v>
       </c>
-      <c r="E29" s="38" t="str">
+      <c r="E28" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Romero</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="23">
+        <v>2944539859</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="26" t="str">
+        <f>MID(A29,SEARCH(",",A29,1)+1,999)</f>
+        <v xml:space="preserve"> Federico</v>
+      </c>
+      <c r="E29" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Teitelbaum Dorfman</v>
+      </c>
+    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="25">
-        <v>2944539859</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="28" t="str">
-        <f>MID(A30,SEARCH(",",A30,1)+1,999)</f>
-        <v xml:space="preserve"> Federico</v>
-      </c>
-      <c r="E30" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Teitelbaum Dorfman</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B30" s="23">
         <v>3548500137</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="28" t="str">
-        <f t="shared" ref="D31:D57" si="2">MID(A31,SEARCH(",",A31,1)+1,999)</f>
+      <c r="D30" s="26" t="str">
+        <f t="shared" ref="D30:D56" si="2">MID(A30,SEARCH(",",A30,1)+1,999)</f>
         <v xml:space="preserve"> Elizabeth</v>
       </c>
-      <c r="E31" s="38" t="str">
+      <c r="E30" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Argento</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B31" s="23">
         <v>3518171617</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="28" t="str">
+      <c r="D31" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lucas Alejandro</v>
       </c>
-      <c r="E32" s="38" t="str">
+      <c r="E31" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Vallejos</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B32" s="23">
         <v>3513131143</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="28" t="str">
+      <c r="D32" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Abel</v>
       </c>
-      <c r="E33" s="38" t="str">
+      <c r="E32" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Díaz</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B33" s="23">
         <v>3516796536</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="28" t="str">
+      <c r="D33" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ariel</v>
       </c>
-      <c r="E34" s="38" t="str">
+      <c r="E33" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Lerda</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B34" s="23">
         <v>3512585218</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="28" t="str">
+      <c r="D34" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Milton</v>
       </c>
-      <c r="E35" s="38" t="str">
+      <c r="E34" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Nolting</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B35" s="23">
         <v>3516958005</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="28" t="str">
+      <c r="D35" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Tomas</v>
       </c>
-      <c r="E36" s="38" t="str">
+      <c r="E35" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Aranda</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B36" s="23">
         <v>3512097342</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="28" t="str">
+      <c r="D36" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Jimenez</v>
       </c>
-      <c r="E37" s="38" t="str">
+      <c r="E36" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Jorge</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B37" s="23">
         <v>3513188722</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="28" t="str">
+      <c r="D37" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Valentino</v>
       </c>
-      <c r="E38" s="38" t="str">
+      <c r="E37" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Oliva</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B38" s="23">
         <v>3518199362</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="28" t="str">
+      <c r="D38" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Santino</v>
       </c>
-      <c r="E39" s="38" t="str">
+      <c r="E38" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Franco</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B39" s="23">
         <v>3515072067</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="28" t="str">
+      <c r="D39" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Alexandro</v>
       </c>
-      <c r="E40" s="38" t="str">
+      <c r="E39" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Palacios</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B40" s="23">
         <v>3512529504</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="28" t="str">
+      <c r="D40" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Emilio</v>
       </c>
-      <c r="E41" s="38" t="str">
+      <c r="E40" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Poeta</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B41" s="23">
         <v>3513209389</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C41" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="28" t="str">
+      <c r="D41" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ernesto</v>
       </c>
-      <c r="E42" s="38" t="str">
+      <c r="E41" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Molina</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="23">
+        <v>3513209389</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="26" t="str">
+        <f>MID(A42,SEARCH(",",A42,1)+1,999)</f>
+        <v xml:space="preserve"> Ernesto</v>
+      </c>
+      <c r="E42" s="36" t="str">
+        <f>MID(A42,1,SEARCH(",",A42,1)-1)</f>
+        <v>Molina</v>
+      </c>
+    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="25">
-        <v>3513209389</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="28" t="str">
-        <f>MID(A43,SEARCH(",",A43,1)+1,999)</f>
-        <v xml:space="preserve"> Ernesto</v>
-      </c>
-      <c r="E43" s="38" t="str">
-        <f>MID(A43,1,SEARCH(",",A43,1)-1)</f>
-        <v>Molina</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A43" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B43" s="23">
         <v>3517343131</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="28" t="str">
+      <c r="D43" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> mateo</v>
       </c>
-      <c r="E44" s="38" t="str">
+      <c r="E43" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Miranda</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B44" s="23">
         <v>3518170886</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="28" t="str">
+      <c r="D44" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Mariano Noel</v>
       </c>
-      <c r="E45" s="38" t="str">
+      <c r="E44" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sánchez</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B45" s="23">
         <v>3531333809</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="28" t="str">
+      <c r="D45" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Manuel</v>
       </c>
-      <c r="E46" s="38" t="str">
+      <c r="E45" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Cajiao</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B46" s="23">
         <v>3516080683</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C46" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="28" t="str">
+      <c r="D46" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Daniel</v>
       </c>
-      <c r="E47" s="38" t="str">
+      <c r="E46" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Villalba</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B47" s="23">
         <v>3512821459</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C47" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="28" t="str">
+      <c r="D47" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Miriam Susana</v>
       </c>
-      <c r="E48" s="38" t="str">
+      <c r="E47" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Rojas</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B48" s="23">
         <v>3513516507</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C48" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="28" t="str">
+      <c r="D48" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Eduardo</v>
       </c>
-      <c r="E49" s="38" t="str">
+      <c r="E48" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Parese </v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B49" s="23">
         <v>3516801312</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="28" t="str">
+      <c r="C49" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Pilar</v>
       </c>
-      <c r="E50" s="38" t="str">
+      <c r="E49" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tasson</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B50" s="23">
         <v>3512729886</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C50" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="28" t="str">
+      <c r="D50" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Patricio</v>
       </c>
-      <c r="E51" s="38" t="str">
+      <c r="E50" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Álvarez </v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B51" s="23">
         <v>3516378862</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C51" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="28" t="str">
+      <c r="D51" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Facundo</v>
       </c>
-      <c r="E52" s="38" t="str">
+      <c r="E51" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Rigopoulos </v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B52" s="23">
         <v>3546450454</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C52" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="28" t="str">
+      <c r="D52" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Manuel Ezequiel</v>
       </c>
-      <c r="E53" s="38" t="str">
+      <c r="E52" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Cholvis Pereiro</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B53" s="23">
         <v>3516644253</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C53" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="28" t="str">
+      <c r="D53" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="E54" s="38" t="str">
+      <c r="E53" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Rodríguez </v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B54" s="23">
         <v>3546482774</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C54" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="28" t="str">
+      <c r="D54" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gregorio</v>
       </c>
-      <c r="E55" s="38" t="str">
+      <c r="E54" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Lopez Guerrero</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="28" t="str">
+      <c r="B55" s="23"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Máximo</v>
       </c>
-      <c r="E56" s="38" t="str">
+      <c r="E55" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Fernández Macyszyn </v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B56" s="23">
         <v>3548600375</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C56" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="28" t="str">
+      <c r="D56" s="26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Agustín</v>
       </c>
-      <c r="E57" s="38" t="str">
+      <c r="E56" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Chazarreta </v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="23">
+        <v>3525415498</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="26" t="str">
+        <f>MID(A57,SEARCH(",",A57,1)+1,999)</f>
+        <v xml:space="preserve"> Facundo</v>
+      </c>
+      <c r="E57" s="36" t="str">
+        <f>MID(A57,1,SEARCH(",",A57,1)-1)</f>
+        <v>Vallejo</v>
+      </c>
+    </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="25">
-        <v>3525415498</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="28" t="str">
+      <c r="A58" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="23">
+        <v>3516811907</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="26" t="str">
         <f>MID(A58,SEARCH(",",A58,1)+1,999)</f>
-        <v xml:space="preserve"> Facundo</v>
-      </c>
-      <c r="E58" s="38" t="str">
+        <v xml:space="preserve"> Giuliano</v>
+      </c>
+      <c r="E58" s="36" t="str">
         <f>MID(A58,1,SEARCH(",",A58,1)-1)</f>
-        <v>Vallejo</v>
+        <v xml:space="preserve">Bianchini </v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="25">
-        <v>3516811907</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="28" t="str">
+      <c r="A59" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="23">
+        <v>3513278560</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="26" t="str">
         <f>MID(A59,SEARCH(",",A59,1)+1,999)</f>
-        <v xml:space="preserve"> Giuliano</v>
-      </c>
-      <c r="E59" s="38" t="str">
+        <v xml:space="preserve"> Germán</v>
+      </c>
+      <c r="E59" s="36" t="str">
         <f>MID(A59,1,SEARCH(",",A59,1)-1)</f>
-        <v xml:space="preserve">Bianchini </v>
+        <v>Primo</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="25">
-        <v>3513278560</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="28" t="str">
+      <c r="A60" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="23">
+        <v>3518137436</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="26" t="str">
         <f>MID(A60,SEARCH(",",A60,1)+1,999)</f>
-        <v xml:space="preserve"> Germán</v>
-      </c>
-      <c r="E60" s="38" t="str">
+        <v xml:space="preserve"> Angel Gauna</v>
+      </c>
+      <c r="E60" s="36" t="str">
         <f>MID(A60,1,SEARCH(",",A60,1)-1)</f>
-        <v>Primo</v>
+        <v>Angell</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="25">
-        <v>3518137436</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="28" t="str">
+      <c r="A61" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="23">
+        <v>3512267580</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="26" t="str">
         <f>MID(A61,SEARCH(",",A61,1)+1,999)</f>
-        <v xml:space="preserve"> Angel Gauna</v>
-      </c>
-      <c r="E61" s="38" t="str">
+        <v xml:space="preserve"> Eliana Beatriz</v>
+      </c>
+      <c r="E61" s="36" t="str">
         <f>MID(A61,1,SEARCH(",",A61,1)-1)</f>
-        <v>Angell</v>
+        <v>Mendieta</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="25">
-        <v>3512267580</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="28" t="str">
-        <f>MID(A62,SEARCH(",",A62,1)+1,999)</f>
-        <v xml:space="preserve"> Eliana Beatriz</v>
-      </c>
-      <c r="E62" s="38" t="str">
-        <f>MID(A62,1,SEARCH(",",A62,1)-1)</f>
-        <v>Mendieta</v>
+      <c r="A62" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="23">
+        <v>3517067907</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="36" t="str">
+        <f t="shared" ref="E62:E66" si="3">MID(A62,1,SEARCH(",",A62,1)-1)</f>
+        <v>Adragna Morich</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="23">
+        <v>3517482210</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Bilbao</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="23">
+        <v>3532496465</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Juárez</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="23">
+        <v>2804373735</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Cufre</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="23">
+        <v>3884290889</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Alabar</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD48 A50:XFD1048576 A49:B49 D49:XFD49">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C42" r:id="rId1" xr:uid="{989EEB2A-A763-41AE-90A3-F1BC4B82E8B3}"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{989EEB2A-A763-41AE-90A3-F1BC4B82E8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -2516,7 +2834,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,44 +2846,44 @@
     <col min="5" max="5" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="16"/>
+    <col min="12" max="12" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="33"/>
       <c r="K1"/>
-      <c r="L1" s="16"/>
+      <c r="L1" s="14"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -2577,7 +2895,7 @@
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="5">
@@ -2586,37 +2904,37 @@
       <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>1976</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <f ca="1">YEAR(TODAY())-E2</f>
         <v>47</v>
       </c>
-      <c r="G2" s="13" t="str">
+      <c r="G2" s="11" t="str">
         <f ca="1">IF(F2&lt;=12, "Niño", IF(F2&lt;=14, "Preadolescente", IF(F2&lt;=24, "Joven", IF(F2&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Adulto</v>
       </c>
-      <c r="H2" s="31" t="str">
+      <c r="H2" s="29" t="str">
         <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
         <v xml:space="preserve"> Juan</v>
       </c>
-      <c r="I2" s="34" t="str">
+      <c r="I2" s="32" t="str">
         <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
         <v>Fernandez</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="47" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="9"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="5">
@@ -2625,30 +2943,30 @@
       <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>1998</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F29" ca="1" si="0">YEAR(TODAY())-E3</f>
         <v>25</v>
       </c>
-      <c r="G3" s="13" t="str">
+      <c r="G3" s="11" t="str">
         <f t="shared" ref="G3:G29" ca="1" si="1">IF(F3&lt;=12, "Niño", IF(F3&lt;=14, "Preadolescente", IF(F3&lt;=24, "Joven", IF(F3&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Joven adulto</v>
       </c>
-      <c r="H3" s="31" t="str">
+      <c r="H3" s="29" t="str">
         <f t="shared" ref="H3:H29" si="2">MID(A3,SEARCH(",",A3,1)+1,999)</f>
         <v xml:space="preserve"> Víctor</v>
       </c>
-      <c r="I3" s="34" t="str">
+      <c r="I3" s="32" t="str">
         <f t="shared" ref="I3:I29" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
         <v>Loo Díaz</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <f ca="1">AVERAGE(F2:F29)</f>
         <v>29.821428571428573</v>
       </c>
@@ -2657,7 +2975,7 @@
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C4" s="5">
@@ -2666,30 +2984,30 @@
       <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>2002</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="str">
+      <c r="G4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H4" s="31" t="str">
+      <c r="H4" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Elio</v>
       </c>
-      <c r="I4" s="34" t="str">
+      <c r="I4" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Milhue</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <f ca="1">COUNTIF($G$2:$G$29,K4)</f>
         <v>3</v>
       </c>
@@ -2698,7 +3016,7 @@
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="5">
@@ -2707,30 +3025,30 @@
       <c r="D5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>1971</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H5" s="31" t="str">
+      <c r="H5" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Luis Martín</v>
       </c>
-      <c r="I5" s="34" t="str">
+      <c r="I5" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Spinsanti</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <f t="shared" ref="L5:L8" ca="1" si="4">COUNTIF($G$2:$G$29,K5)</f>
         <v>2</v>
       </c>
@@ -2739,7 +3057,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C6" s="5">
@@ -2748,30 +3066,30 @@
       <c r="D6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1952</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H6" s="31" t="str">
+      <c r="H6" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ramón</v>
       </c>
-      <c r="I6" s="34" t="str">
+      <c r="I6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Argento</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
@@ -2780,7 +3098,7 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="5">
@@ -2789,30 +3107,30 @@
       <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>2015</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-      <c r="H7" s="31" t="str">
+      <c r="H7" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="I7" s="34" t="str">
+      <c r="I7" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Soria</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="16">
         <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
@@ -2821,7 +3139,7 @@
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="5">
@@ -2830,30 +3148,30 @@
       <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>1994</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H8" s="31" t="str">
+      <c r="H8" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="I8" s="34" t="str">
+      <c r="I8" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Quinteros</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="16">
         <f t="shared" ca="1" si="4"/>
         <v>9</v>
       </c>
@@ -2862,7 +3180,7 @@
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="5">
@@ -2871,32 +3189,32 @@
       <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>2001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H9" s="31" t="str">
+      <c r="H9" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Felipe</v>
       </c>
-      <c r="I9" s="34" t="str">
+      <c r="I9" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Maldonado</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="5">
@@ -2905,32 +3223,32 @@
       <c r="D10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>2001</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H10" s="31" t="str">
+      <c r="H10" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Benjamin</v>
       </c>
-      <c r="I10" s="34" t="str">
+      <c r="I10" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Martinez</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="5">
@@ -2939,32 +3257,32 @@
       <c r="D11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>1999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H11" s="31" t="str">
+      <c r="H11" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Damián</v>
       </c>
-      <c r="I11" s="34" t="str">
+      <c r="I11" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Saurin</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="5">
@@ -2973,32 +3291,32 @@
       <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>1997</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H12" s="31" t="str">
+      <c r="H12" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Bernardo</v>
       </c>
-      <c r="I12" s="34" t="str">
+      <c r="I12" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Pérez</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="5">
@@ -3007,32 +3325,32 @@
       <c r="D13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>2012</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-      <c r="H13" s="31" t="str">
+      <c r="H13" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fabrizio Isaías</v>
       </c>
-      <c r="I13" s="34" t="str">
+      <c r="I13" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Verón</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="5">
@@ -3041,32 +3359,32 @@
       <c r="D14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>2010</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-      <c r="H14" s="31" t="str">
+      <c r="H14" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gaspar</v>
       </c>
-      <c r="I14" s="34" t="str">
+      <c r="I14" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Sánchez Sargiotti</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="5">
@@ -3075,32 +3393,32 @@
       <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>1982</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-      <c r="G15" s="13" t="str">
+      <c r="G15" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H15" s="31" t="str">
+      <c r="H15" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Juan Martin</v>
       </c>
-      <c r="I15" s="34" t="str">
+      <c r="I15" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Masco</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="5">
@@ -3109,92 +3427,92 @@
       <c r="D16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>2008</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="G16" s="13" t="str">
+      <c r="G16" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H16" s="31" t="str">
+      <c r="H16" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lisandro</v>
       </c>
-      <c r="I16" s="34" t="str">
+      <c r="I16" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Légora</v>
       </c>
-      <c r="J16" s="35"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>1980</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="G17" s="13" t="str">
+      <c r="G17" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H17" s="31" t="str">
+      <c r="H17" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Cristian Alberto</v>
       </c>
-      <c r="I17" s="34" t="str">
+      <c r="I17" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Battisti</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>1980</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="G18" s="13" t="str">
+      <c r="G18" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H18" s="31" t="str">
+      <c r="H18" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Marco</v>
       </c>
-      <c r="I18" s="34" t="str">
+      <c r="I18" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Moyano</v>
       </c>
-      <c r="J18" s="35"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="5">
@@ -3203,32 +3521,32 @@
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>2015</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="G19" s="13" t="str">
+      <c r="G19" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Niño</v>
       </c>
-      <c r="H19" s="31" t="str">
+      <c r="H19" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Camilo</v>
       </c>
-      <c r="I19" s="34" t="str">
+      <c r="I19" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Torero Navarro</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="5">
@@ -3237,32 +3555,32 @@
       <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>1995</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="G20" s="13" t="str">
+      <c r="G20" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H20" s="31" t="str">
+      <c r="H20" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lucho</v>
       </c>
-      <c r="I20" s="34" t="str">
+      <c r="I20" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Satler</v>
       </c>
-      <c r="J20" s="35"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="5">
@@ -3271,32 +3589,32 @@
       <c r="D21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>2005</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H21" s="31" t="str">
+      <c r="H21" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Moisset</v>
       </c>
-      <c r="I21" s="34" t="str">
+      <c r="I21" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Hernan</v>
       </c>
-      <c r="J21" s="35"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="5">
@@ -3305,32 +3623,32 @@
       <c r="D22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>1993</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H22" s="31" t="str">
+      <c r="H22" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Hernán Nicolas</v>
       </c>
-      <c r="I22" s="34" t="str">
+      <c r="I22" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Adragna Morich</v>
       </c>
-      <c r="J22" s="35"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="5">
@@ -3339,32 +3657,32 @@
       <c r="D23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>1993</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="G23" s="13" t="str">
+      <c r="G23" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
-      <c r="H23" s="31" t="str">
+      <c r="H23" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> José Luis</v>
       </c>
-      <c r="I23" s="34" t="str">
+      <c r="I23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Romero</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="5">
@@ -3373,32 +3691,32 @@
       <c r="D24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>2006</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="G24" s="13" t="str">
+      <c r="G24" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H24" s="31" t="str">
+      <c r="H24" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Iñaki</v>
       </c>
-      <c r="I24" s="34" t="str">
+      <c r="I24" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Abad</v>
       </c>
-      <c r="J24" s="35"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="5">
@@ -3407,32 +3725,32 @@
       <c r="D25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>1982</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-      <c r="G25" s="13" t="str">
+      <c r="G25" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H25" s="31" t="str">
+      <c r="H25" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gabriel</v>
       </c>
-      <c r="I25" s="34" t="str">
+      <c r="I25" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Hernández </v>
       </c>
-      <c r="J25" s="35"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="5">
@@ -3441,32 +3759,32 @@
       <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>1999</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="G26" s="13" t="str">
+      <c r="G26" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
-      <c r="H26" s="31" t="str">
+      <c r="H26" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Benjamín Elías</v>
       </c>
-      <c r="I26" s="34" t="str">
+      <c r="I26" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Silva</v>
       </c>
-      <c r="J26" s="35"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="5">
@@ -3475,32 +3793,32 @@
       <c r="D27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>2010</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="G27" s="13" t="str">
+      <c r="G27" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
-      <c r="H27" s="31" t="str">
+      <c r="H27" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Bautista</v>
       </c>
-      <c r="I27" s="34" t="str">
+      <c r="I27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Brizuela</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C28" s="5">
@@ -3509,56 +3827,56 @@
       <c r="D28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>1981</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
-      <c r="G28" s="13" t="str">
+      <c r="G28" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H28" s="31" t="str">
+      <c r="H28" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Cristian</v>
       </c>
-      <c r="I28" s="34" t="str">
+      <c r="I28" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Halac</v>
       </c>
-      <c r="J28" s="35"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>1952</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
-      <c r="G29" s="13" t="str">
+      <c r="G29" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
-      <c r="H29" s="31" t="str">
+      <c r="H29" s="29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Alberto</v>
       </c>
-      <c r="I29" s="34" t="str">
+      <c r="I29" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Romero</v>
       </c>
-      <c r="J29" s="35"/>
+      <c r="J29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3572,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57A47E-A8F3-4DCB-8223-93DEC2F336FF}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,45 +3907,45 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="16" customWidth="1"/>
+    <col min="12" max="12" width="8" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="L1" s="16"/>
+      <c r="J1" s="31"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="5">
@@ -3639,11 +3957,11 @@
       <c r="E2" s="5">
         <v>1952</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <f ca="1">YEAR(TODAY())-E2</f>
         <v>71</v>
       </c>
-      <c r="G2" s="13" t="str">
+      <c r="G2" s="11" t="str">
         <f ca="1">IF(F2&lt;=12, "Niño", IF(F2&lt;=14, "Preadolescente", IF(F2&lt;=24, "Joven", IF(F2&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Adulto</v>
       </c>
@@ -3651,22 +3969,22 @@
         <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
         <v xml:space="preserve"> Ramón</v>
       </c>
-      <c r="I2" s="34" t="str">
+      <c r="I2" s="32" t="str">
         <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
         <v>Argento</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="47" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="47"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>104</v>
+      <c r="B3" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C3" s="5">
         <v>3517447526</v>
@@ -3677,11 +3995,11 @@
       <c r="E3" s="5">
         <v>1994</v>
       </c>
-      <c r="F3" s="13">
-        <f t="shared" ref="F3:F27" ca="1" si="0">YEAR(TODAY())-E3</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F19" ca="1" si="0">YEAR(TODAY())-E3</f>
         <v>29</v>
       </c>
-      <c r="G3" s="13" t="str">
+      <c r="G3" s="11" t="str">
         <f t="shared" ref="G3:G19" ca="1" si="1">IF(F3&lt;=12, "Niño", IF(F3&lt;=14, "Preadolescente", IF(F3&lt;=24, "Joven", IF(F3&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Joven adulto</v>
       </c>
@@ -3689,15 +4007,15 @@
         <f t="shared" ref="H3:H19" si="2">MID(A3,SEARCH(",",A3,1)+1,999)</f>
         <v xml:space="preserve"> Andres Fernando</v>
       </c>
-      <c r="I3" s="34" t="str">
+      <c r="I3" s="32" t="str">
         <f t="shared" ref="I3:I19" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
         <v>Quinteros</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <f ca="1">AVERAGE(F2:F28)</f>
         <v>33.807692307692307</v>
       </c>
@@ -3706,7 +4024,7 @@
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C4" s="5">
@@ -3718,11 +4036,11 @@
       <c r="E4" s="5">
         <v>1999</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="G4" s="13" t="str">
+      <c r="G4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
@@ -3730,15 +4048,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Damián Nicolás</v>
       </c>
-      <c r="I4" s="34" t="str">
+      <c r="I4" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Saurin</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <f ca="1">COUNTIF($G$2:$G$28,K4)</f>
         <v>1</v>
       </c>
@@ -3747,8 +4065,8 @@
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>104</v>
+      <c r="B5" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C5" s="5">
         <v>3518583252</v>
@@ -3759,11 +4077,11 @@
       <c r="E5" s="5">
         <v>1995</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
@@ -3771,15 +4089,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Lucho</v>
       </c>
-      <c r="I5" s="34" t="str">
+      <c r="I5" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Satler</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <f ca="1">COUNTIF($G$2:$G$28,K5)</f>
         <v>2</v>
       </c>
@@ -3788,8 +4106,8 @@
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>104</v>
+      <c r="B6" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C6" s="5">
         <v>3516080683</v>
@@ -3800,11 +4118,11 @@
       <c r="E6" s="5">
         <v>1994</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
@@ -3812,15 +4130,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Daniel</v>
       </c>
-      <c r="I6" s="34" t="str">
+      <c r="I6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Villalba</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <f ca="1">COUNTIF($G$2:$G$28,K6)</f>
         <v>7</v>
       </c>
@@ -3829,7 +4147,7 @@
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="5">
@@ -3841,11 +4159,11 @@
       <c r="E7" s="5">
         <v>1998</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
@@ -3853,15 +4171,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Víctor</v>
       </c>
-      <c r="I7" s="34" t="str">
+      <c r="I7" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Loo Díaz </v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="16">
         <f ca="1">COUNTIF($G$2:$G$28,K7)</f>
         <v>6</v>
       </c>
@@ -3870,7 +4188,7 @@
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="5">
@@ -3882,11 +4200,11 @@
       <c r="E8" s="5">
         <v>1957</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
@@ -3894,15 +4212,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Miriam Susana</v>
       </c>
-      <c r="I8" s="34" t="str">
+      <c r="I8" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Rojas</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="16">
         <f ca="1">COUNTIF($G$2:$G$28,K8)</f>
         <v>10</v>
       </c>
@@ -3911,7 +4229,7 @@
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="5">
@@ -3923,11 +4241,11 @@
       <c r="E9" s="5">
         <v>1965</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
@@ -3935,17 +4253,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Eduardo</v>
       </c>
-      <c r="I9" s="34" t="str">
+      <c r="I9" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Parese </v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="5">
@@ -3957,11 +4275,11 @@
       <c r="E10" s="5">
         <v>1960</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
@@ -3969,17 +4287,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Pilar</v>
       </c>
-      <c r="I10" s="34" t="str">
+      <c r="I10" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Tasson</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="5">
@@ -3991,11 +4309,11 @@
       <c r="E11" s="5">
         <v>2009</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
@@ -4003,17 +4321,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Patricio</v>
       </c>
-      <c r="I11" s="34" t="str">
+      <c r="I11" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Álvarez </v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="5">
@@ -4025,11 +4343,11 @@
       <c r="E12" s="5">
         <v>1982</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
@@ -4037,17 +4355,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Juan Martin</v>
       </c>
-      <c r="I12" s="34" t="str">
+      <c r="I12" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Mascó </v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="5">
@@ -4059,11 +4377,11 @@
       <c r="E13" s="5">
         <v>1992</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven adulto</v>
       </c>
@@ -4071,17 +4389,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Facundo</v>
       </c>
-      <c r="I13" s="34" t="str">
+      <c r="I13" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Rigopoulos </v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="5">
@@ -4093,11 +4411,11 @@
       <c r="E14" s="5">
         <v>2009</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Preadolescente</v>
       </c>
@@ -4105,17 +4423,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Manuel Ezequiel</v>
       </c>
-      <c r="I14" s="34" t="str">
+      <c r="I14" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Cholvis Pereiro</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="5">
@@ -4127,11 +4445,11 @@
       <c r="E15" s="5">
         <v>1980</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="G15" s="13" t="str">
+      <c r="G15" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
@@ -4139,18 +4457,18 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Fernando</v>
       </c>
-      <c r="I15" s="34" t="str">
+      <c r="I15" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Rodríguez </v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>104</v>
+      <c r="B16" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="5">
         <v>3546482774</v>
@@ -4161,11 +4479,11 @@
       <c r="E16" s="5">
         <v>2008</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="G16" s="13" t="str">
+      <c r="G16" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
@@ -4173,17 +4491,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Gregorio</v>
       </c>
-      <c r="I16" s="34" t="str">
+      <c r="I16" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Lopez Guerrero</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="5"/>
@@ -4191,11 +4509,11 @@
       <c r="E17" s="5">
         <v>2008</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="G17" s="13" t="str">
+      <c r="G17" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
@@ -4203,17 +4521,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Máximo</v>
       </c>
-      <c r="I17" s="34" t="str">
+      <c r="I17" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Fernández Macyszyn </v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="5">
@@ -4225,11 +4543,11 @@
       <c r="E18" s="5">
         <v>1999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="G18" s="13" t="str">
+      <c r="G18" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Joven</v>
       </c>
@@ -4237,17 +4555,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Agustín</v>
       </c>
-      <c r="I18" s="34" t="str">
+      <c r="I18" s="32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Chazarreta </v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="5">
@@ -4259,11 +4577,11 @@
       <c r="E19" s="5">
         <v>1963</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
-      <c r="G19" s="13" t="str">
+      <c r="G19" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Adulto</v>
       </c>
@@ -4271,17 +4589,17 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Ernesto</v>
       </c>
-      <c r="I19" s="34" t="str">
+      <c r="I19" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Molina</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="5">
@@ -4293,11 +4611,11 @@
       <c r="E20" s="5">
         <v>2006</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f t="shared" ref="F20:F27" ca="1" si="4">YEAR(TODAY())-E20</f>
         <v>17</v>
       </c>
-      <c r="G20" s="13" t="str">
+      <c r="G20" s="11" t="str">
         <f t="shared" ref="G20:G27" ca="1" si="5">IF(F20&lt;=12, "Niño", IF(F20&lt;=14, "Preadolescente", IF(F20&lt;=24, "Joven", IF(F20&lt;=35, "Joven adulto", "Adulto"))))</f>
         <v>Joven</v>
       </c>
@@ -4305,17 +4623,17 @@
         <f t="shared" ref="H20:H27" si="6">MID(A20,SEARCH(",",A20,1)+1,999)</f>
         <v xml:space="preserve"> Iñaki</v>
       </c>
-      <c r="I20" s="34" t="str">
+      <c r="I20" s="32" t="str">
         <f t="shared" ref="I20:I27" si="7">MID(A20,1,SEARCH(",",A20,1)-1)</f>
         <v>Abad</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="5">
@@ -4327,11 +4645,11 @@
       <c r="E21" s="5">
         <v>2003</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="11" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Joven</v>
       </c>
@@ -4339,17 +4657,17 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> Facundo</v>
       </c>
-      <c r="I21" s="34" t="str">
+      <c r="I21" s="32" t="str">
         <f t="shared" si="7"/>
         <v>Vallejo</v>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="5">
@@ -4361,11 +4679,11 @@
       <c r="E22" s="5">
         <v>2004</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <f t="shared" ca="1" si="4"/>
         <v>19</v>
       </c>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="11" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Joven</v>
       </c>
@@ -4373,17 +4691,17 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> Giuliano</v>
       </c>
-      <c r="I22" s="34" t="str">
+      <c r="I22" s="32" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">Bianchini </v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="5">
@@ -4395,11 +4713,11 @@
       <c r="E23" s="5">
         <v>1974</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
-      <c r="G23" s="13" t="str">
+      <c r="G23" s="11" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Adulto</v>
       </c>
@@ -4407,17 +4725,17 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> Germán</v>
       </c>
-      <c r="I23" s="34" t="str">
+      <c r="I23" s="32" t="str">
         <f t="shared" si="7"/>
         <v>Primo</v>
       </c>
-      <c r="J23" s="33"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="5">
@@ -4429,11 +4747,11 @@
       <c r="E24" s="5">
         <v>1981</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <f t="shared" ca="1" si="4"/>
         <v>42</v>
       </c>
-      <c r="G24" s="13" t="str">
+      <c r="G24" s="11" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Adulto</v>
       </c>
@@ -4441,17 +4759,17 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> Cristian</v>
       </c>
-      <c r="I24" s="34" t="str">
+      <c r="I24" s="32" t="str">
         <f t="shared" si="7"/>
         <v>Halac</v>
       </c>
-      <c r="J24" s="33"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="5">
@@ -4463,11 +4781,11 @@
       <c r="E25" s="5">
         <v>2012</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
-      <c r="G25" s="13" t="str">
+      <c r="G25" s="11" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Niño</v>
       </c>
@@ -4475,17 +4793,17 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> Angel Gauna</v>
       </c>
-      <c r="I25" s="34" t="str">
+      <c r="I25" s="32" t="str">
         <f t="shared" si="7"/>
         <v>Angell</v>
       </c>
-      <c r="J25" s="33"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="5">
@@ -4497,11 +4815,11 @@
       <c r="E26" s="5">
         <v>1982</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
-      <c r="G26" s="13" t="str">
+      <c r="G26" s="11" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Adulto</v>
       </c>
@@ -4509,17 +4827,17 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> Eliana Beatriz</v>
       </c>
-      <c r="I26" s="34" t="str">
+      <c r="I26" s="32" t="str">
         <f t="shared" si="7"/>
         <v>Mendieta</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="5">
@@ -4531,11 +4849,11 @@
       <c r="E27" s="5">
         <v>1993</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
-      <c r="G27" s="13" t="str">
+      <c r="G27" s="11" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Joven adulto</v>
       </c>
@@ -4543,15 +4861,15 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> Hernán Nicolas</v>
       </c>
-      <c r="I27" s="34" t="str">
+      <c r="I27" s="32" t="str">
         <f t="shared" si="7"/>
         <v>Adragna Morich</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4560,4 +4878,692 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02627CE-130C-48F4-99D2-4C51D25281E0}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3517482210</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F2" s="11">
+        <f ca="1">YEAR(TODAY())-E2</f>
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="str">
+        <f ca="1">IF(F2&lt;=12, "Niño", IF(F2&lt;=14, "Preadolescente", IF(F2&lt;=24, "Joven", IF(F2&lt;=35, "Joven adulto", "Adulto"))))</f>
+        <v>Preadolescente</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f>MID(A2,SEARCH(",",A2,1)+1,999)</f>
+        <v xml:space="preserve"> León Jerónimo</v>
+      </c>
+      <c r="I2" s="32" t="str">
+        <f>MID(A2,1,SEARCH(",",A2,1)-1)</f>
+        <v>Bilbao</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3525415498</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F18" ca="1" si="0">YEAR(TODAY())-E3</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f t="shared" ref="G3:G18" ca="1" si="1">IF(F3&lt;=12, "Niño", IF(F3&lt;=14, "Preadolescente", IF(F3&lt;=24, "Joven", IF(F3&lt;=35, "Joven adulto", "Adulto"))))</f>
+        <v>Joven</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H18" si="2">MID(A3,SEARCH(",",A3,1)+1,999)</f>
+        <v xml:space="preserve"> Facundo</v>
+      </c>
+      <c r="I3" s="32" t="str">
+        <f t="shared" ref="I3:I18" si="3">MID(A3,1,SEARCH(",",A3,1)-1)</f>
+        <v>Vallejo</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="15">
+        <f ca="1">AVERAGE(F2:F18)</f>
+        <v>32.588235294117645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3516811907</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Joven</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Giuliano</v>
+      </c>
+      <c r="I4" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Bianchini </v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="16">
+        <f ca="1">COUNTIF($G$2:$G$18,K4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3516801312</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1960</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Pilar</v>
+      </c>
+      <c r="I5" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Tason</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="16">
+        <f ca="1">COUNTIF($G$2:$G$18,K5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3532496465</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1964</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> José Alberto</v>
+      </c>
+      <c r="I6" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Juárez</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="16">
+        <f ca="1">COUNTIF($G$2:$G$18,K6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2804373735</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Joven adulto</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Santiago</v>
+      </c>
+      <c r="I7" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Cufre</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="16">
+        <f ca="1">COUNTIF($G$2:$G$18,K7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3516378862</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1992</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Joven adulto</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Facundo</v>
+      </c>
+      <c r="I8" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Rigopoulos </v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="16">
+        <f ca="1">COUNTIF($G$2:$G$18,K8)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3515444224</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Preadolescente</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Gaspar</v>
+      </c>
+      <c r="I9" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Sánchez Sargiotti</v>
+      </c>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3518199362</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Joven</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Santino Leon</v>
+      </c>
+      <c r="I10" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Franco</v>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3513516507</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1965</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Eduardo</v>
+      </c>
+      <c r="I11" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Parese </v>
+      </c>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3884290889</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Joven</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Alvaro Amir</v>
+      </c>
+      <c r="I12" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Alabar</v>
+      </c>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3516789379</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Niño</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Felipe</v>
+      </c>
+      <c r="I13" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Soria</v>
+      </c>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3512821459</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1957</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miriam Susana</v>
+      </c>
+      <c r="I14" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Rojas</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3517058324</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1981</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Cristian</v>
+      </c>
+      <c r="I15" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Halac</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3516789379</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1982</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Christian</v>
+      </c>
+      <c r="I16" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Soria</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3518583252</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1995</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Joven adulto</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Lucho</v>
+      </c>
+      <c r="I17" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>Satler</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3518730122</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1997</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Joven adulto</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Bernardo</v>
+      </c>
+      <c r="I18" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Pérez </v>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>